--- a/public/models/BulkImportStructures.xlsx
+++ b/public/models/BulkImportStructures.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">Nom usuel en français</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t xml:space="preserve">Date de fermeture approximative {O = Oui, N = Non}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parent {rechercher le code}</t>
   </si>
 </sst>
 </file>
@@ -144,7 +141,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -165,12 +162,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="0"/>
     </font>
   </fonts>
@@ -228,7 +219,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -241,7 +232,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -250,10 +241,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -340,8 +327,8 @@
   </sheetPr>
   <dimension ref="A1:AL97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AJ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AL7" activeCellId="0" sqref="AL7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -353,25 +340,25 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -386,58 +373,58 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AE1" s="3" t="s">
@@ -446,24 +433,22 @@
       <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="0" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="0" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="0" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="0" t="s">
-        <v>37</v>
-      </c>
+      <c r="AL1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
@@ -500,8 +485,8 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="6"/>
-      <c r="AG6" s="7"/>
+      <c r="K6" s="1"/>
+      <c r="AG6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
@@ -509,7 +494,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="M7" s="5"/>
-      <c r="AG7" s="7"/>
+      <c r="AG7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>

--- a/public/models/BulkImportStructures.xlsx
+++ b/public/models/BulkImportStructures.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t xml:space="preserve">Nom usuel en français</t>
   </si>
@@ -74,6 +74,33 @@
   </si>
   <si>
     <t xml:space="preserve">Numéro siret [12345678901234]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifiant bibliothèque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifiant Crunchbase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifiant Dealroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifiant Google Scholar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifiant Rinngold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifiant idHal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifiant Grid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifiant Crossref Funder Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifiant Finess Id</t>
   </si>
   <si>
     <t xml:space="preserve">Numéro RNSR [123456789X]</t>
@@ -229,7 +256,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -246,7 +273,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -335,22 +366,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AL1048576"/>
+  <dimension ref="A1:AU86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" ySplit="0" topLeftCell="X1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="X5" activeCellId="0" sqref="X5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="40.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="40.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="45"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="40.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="40.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="59.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="56.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="48"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="27" min="18" style="2" width="40.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="59.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="56.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="48"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -408,31 +439,31 @@
       <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
@@ -444,10 +475,10 @@
       <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AG1" s="1" t="s">
@@ -465,478 +496,494 @@
       <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="M2" s="6"/>
-      <c r="AG2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M2" s="7"/>
+      <c r="AP2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AJ3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP3" s="1"/>
+      <c r="AS3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="M4" s="6"/>
-      <c r="AG4" s="1"/>
-      <c r="AJ4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M4" s="7"/>
+      <c r="AP4" s="1"/>
+      <c r="AS4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="AG5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="M6" s="6"/>
-      <c r="AJ6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M6" s="7"/>
+      <c r="AS6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="AG7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="M8" s="6"/>
-      <c r="AG8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M8" s="7"/>
+      <c r="AP8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="AG9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="M10" s="6"/>
-      <c r="AG10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M10" s="7"/>
+      <c r="AP10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="AG11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
       <c r="C12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="M12" s="6"/>
-      <c r="AG12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M12" s="7"/>
+      <c r="AP12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AJ13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP13" s="1"/>
+      <c r="AS13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="M14" s="6"/>
-      <c r="AG14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M14" s="7"/>
+      <c r="AP14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="AG15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="M16" s="6"/>
-      <c r="AG16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M16" s="7"/>
+      <c r="AP16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="AG17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="M18" s="6"/>
-      <c r="Y18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AG18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M18" s="7"/>
+      <c r="AH18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AP18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="AG19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="M20" s="6"/>
-      <c r="AG20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M20" s="7"/>
+      <c r="AP20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AG21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AJ21" s="1"/>
+      <c r="AP21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="M22" s="6"/>
-      <c r="AG22" s="1"/>
-      <c r="AJ22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M22" s="7"/>
+      <c r="AP22" s="1"/>
+      <c r="AS22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="AG23" s="1"/>
-      <c r="AJ23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP23" s="1"/>
+      <c r="AS23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="M24" s="6"/>
-      <c r="AA24" s="1"/>
-      <c r="AG24" s="1"/>
+      <c r="M24" s="7"/>
       <c r="AJ24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP24" s="1"/>
+      <c r="AS24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AJ25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP25" s="1"/>
+      <c r="AS25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="M26" s="6"/>
-      <c r="AG26" s="1"/>
-      <c r="AJ26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M26" s="7"/>
+      <c r="AP26" s="1"/>
+      <c r="AS26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="AA27" s="1"/>
-      <c r="AG27" s="1"/>
       <c r="AJ27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP27" s="1"/>
+      <c r="AS27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="M28" s="6"/>
-      <c r="AG28" s="1"/>
-      <c r="AJ28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M28" s="7"/>
+      <c r="AP28" s="1"/>
+      <c r="AS28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="AG29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="M30" s="6"/>
-      <c r="AG30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M30" s="7"/>
+      <c r="AP30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="AG31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="M32" s="6"/>
-      <c r="AG32" s="1"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M32" s="7"/>
+      <c r="AP32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="AG33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="M34" s="6"/>
-      <c r="AG34" s="1"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M34" s="7"/>
+      <c r="AP34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="AG35" s="1"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP35" s="1"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="M36" s="6"/>
-      <c r="Y36" s="1"/>
-      <c r="AG36" s="1"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M36" s="7"/>
+      <c r="AH36" s="1"/>
+      <c r="AP36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="AG37" s="1"/>
-      <c r="AJ37" s="1"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP37" s="1"/>
+      <c r="AS37" s="1"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-      <c r="M38" s="6"/>
-      <c r="AG38" s="1"/>
-      <c r="AJ38" s="1"/>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M38" s="7"/>
+      <c r="AP38" s="1"/>
+      <c r="AS38" s="1"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-      <c r="AG39" s="1"/>
-      <c r="AJ39" s="1"/>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP39" s="1"/>
+      <c r="AS39" s="1"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-      <c r="M40" s="6"/>
-      <c r="AG40" s="1"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M40" s="7"/>
+      <c r="AP40" s="1"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="AG41" s="1"/>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP41" s="1"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="M42" s="6"/>
-      <c r="AG42" s="1"/>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M42" s="7"/>
+      <c r="AP42" s="1"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="AG43" s="1"/>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP43" s="1"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="M44" s="6"/>
-      <c r="AG44" s="1"/>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M44" s="7"/>
+      <c r="AP44" s="1"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-      <c r="AG45" s="1"/>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP45" s="1"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-      <c r="M46" s="6"/>
-      <c r="AG46" s="1"/>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M46" s="7"/>
+      <c r="AP46" s="1"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-      <c r="AG47" s="1"/>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP47" s="1"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-      <c r="M48" s="6"/>
-      <c r="AG48" s="1"/>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M48" s="7"/>
+      <c r="AP48" s="1"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-      <c r="AA49" s="1"/>
-      <c r="AG49" s="1"/>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AJ49" s="1"/>
+      <c r="AP49" s="1"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
-      <c r="M50" s="6"/>
-      <c r="AG50" s="1"/>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M50" s="7"/>
+      <c r="AP50" s="1"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
-      <c r="AG51" s="1"/>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP51" s="1"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
-      <c r="M52" s="6"/>
-      <c r="AG52" s="1"/>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M52" s="7"/>
+      <c r="AP52" s="1"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
-      <c r="AG53" s="1"/>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP53" s="1"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
-      <c r="M54" s="6"/>
-      <c r="AG54" s="1"/>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M54" s="7"/>
+      <c r="AP54" s="1"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J55" s="1"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J56" s="1"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J57" s="1"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J58" s="1"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J59" s="1"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J60" s="1"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J61" s="1"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J62" s="1"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J63" s="1"/>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J64" s="1"/>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J65" s="1"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J66" s="1"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J67" s="1"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J68" s="1"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J69" s="1"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J70" s="1"/>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J71" s="1"/>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J72" s="1"/>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J73" s="1"/>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J74" s="1"/>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J75" s="1"/>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J76" s="1"/>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J77" s="1"/>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J78" s="1"/>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J79" s="1"/>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J80" s="1"/>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J81" s="1"/>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J82" s="1"/>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J83" s="1"/>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J84" s="1"/>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J85" s="1"/>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J86" s="1"/>
     </row>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/public/models/BulkImportStructures.xlsx
+++ b/public/models/BulkImportStructures.xlsx
@@ -1,17 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29518"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C15124DB-48B0-4DD9-B28A-4D9F63FC035A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Modèle" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Modèle" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Modèle!$AF$2:$AF$86</definedName>
+  </definedNames>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -20,158 +38,213 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <si>
-    <t xml:space="preserve">Nom usuel en français</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom court en français</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sigle en français</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom long en anglais :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom court  en anglais :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom officiel dans la langue originale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom court officiel dans la langue originale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autres dénominations possibles séparées par des ;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statut [O = Ouvert, F = Fermé, P = Potentiel]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code de la/des catégories {rechercher le code, séparation ;}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code du statut juridique {rechercher le code}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Localisation [A1 = France métropolitaine et les DOM, A2 = Collectivités d'outre-mer, A3 = Hors de France]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code commune {rechercher le code}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifiant IdRef [123456789]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifiant Wikidata [Q1234]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifiant ROR [12cd5fg89]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code UAI [1234567X]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numéro siret [12345678901234]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifiant Crunchbase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifiant Dealroom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numéro RNSR [123456789X]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numéro de l'ED [123]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Site internet en français</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Site internet en anglais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compte twitter [https://twitter.com/XXX]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compte linkedIn [https://www.linkedin.com/in/XXX-XXX-123456/]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mention de distribution :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adresse :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lieu dit :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boite postale :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code postal :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Localité d'acheminement :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code iso3 du pays {rechercher le code ISO}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom du pays en français {rechercher le libellé}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coordonnées GPS [-12.34,5.6789]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date de création {2020-07-02}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date de création approximative {O = Oui, N = Non}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date de fermeture {2020-07-02}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date de fermeture approximative {O = Oui, N = Non}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parent</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+  <si>
+    <t>Nom usuel en français</t>
+  </si>
+  <si>
+    <t>Nom court en français</t>
+  </si>
+  <si>
+    <t>Sigle en français</t>
+  </si>
+  <si>
+    <t>Nom long en anglais :</t>
+  </si>
+  <si>
+    <t>Nom court  en anglais :</t>
+  </si>
+  <si>
+    <t>Nom officiel dans la langue originale</t>
+  </si>
+  <si>
+    <t>Nom court officiel dans la langue originale</t>
+  </si>
+  <si>
+    <t>Autres dénominations possibles séparées par des ;</t>
+  </si>
+  <si>
+    <t>Statut [O = Ouvert, F = Fermé, P = Potentiel]</t>
+  </si>
+  <si>
+    <t>Code de la/des catégories {rechercher le code, séparation ;}</t>
+  </si>
+  <si>
+    <t>Code du statut juridique {rechercher le code}</t>
+  </si>
+  <si>
+    <t>Localisation [A1 = France métropolitaine et les DOM, A2 = Collectivités d'outre-mer, A3 = Hors de France]</t>
+  </si>
+  <si>
+    <t>Code commune {rechercher le code}</t>
+  </si>
+  <si>
+    <t>Site internet en français</t>
+  </si>
+  <si>
+    <t>Site internet en anglais</t>
+  </si>
+  <si>
+    <t>Compte twitter [https://twitter.com/XXX]</t>
+  </si>
+  <si>
+    <t>Compte linkedIn [https://www.linkedin.com/in/XXX-XXX-123456/]</t>
+  </si>
+  <si>
+    <t>Adresse :</t>
+  </si>
+  <si>
+    <t>Lieu dit :</t>
+  </si>
+  <si>
+    <t>Boite postale :</t>
+  </si>
+  <si>
+    <t>Code postal :</t>
+  </si>
+  <si>
+    <t>Localité d'acheminement :</t>
+  </si>
+  <si>
+    <t>Coordonnées GPS [-12.34,5.6789]</t>
+  </si>
+  <si>
+    <t>Nom du pays en français {rechercher le libellé}</t>
+  </si>
+  <si>
+    <t>Code iso3 du pays {rechercher le code ISO}</t>
+  </si>
+  <si>
+    <t>Date de création {2020-07-02}</t>
+  </si>
+  <si>
+    <t>Date de fermeture {2020-07-02}</t>
+  </si>
+  <si>
+    <t>Identifiant IdRef [123456789]</t>
+  </si>
+  <si>
+    <t>Identifiant Wikidata [Q1234]</t>
+  </si>
+  <si>
+    <t>Identifiant ROR [12cd5fg89]</t>
+  </si>
+  <si>
+    <t>Code UAI [1234567X]</t>
+  </si>
+  <si>
+    <t>Numéro siret [12345678901234]</t>
+  </si>
+  <si>
+    <t>Identifiant Crunchbase</t>
+  </si>
+  <si>
+    <t>Identifiant Dealroom</t>
+  </si>
+  <si>
+    <t>Numéro RNSR [123456789X]</t>
+  </si>
+  <si>
+    <t>Numéro de l'ED [123]</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>Identifiant ANNELIS</t>
+  </si>
+  <si>
+    <t>ESGBU - id bibliothèque</t>
+  </si>
+  <si>
+    <t>Identifiant BnF</t>
+  </si>
+  <si>
+    <t>CNRS id</t>
+  </si>
+  <si>
+    <t>CTI id</t>
+  </si>
+  <si>
+    <t>EU Transparency</t>
+  </si>
+  <si>
+    <t>ETER id</t>
+  </si>
+  <si>
+    <t>ESGBU - id établissement</t>
+  </si>
+  <si>
+    <t>FINESS id</t>
+  </si>
+  <si>
+    <t>Crossref funder ID</t>
+  </si>
+  <si>
+    <t>Identifiant Google Scholar</t>
+  </si>
+  <si>
+    <t>GRID id</t>
+  </si>
+  <si>
+    <t>Identifiant HATVP</t>
+  </si>
+  <si>
+    <t>Identifiant IdHAL</t>
+  </si>
+  <si>
+    <t>Identifiant ISIL</t>
+  </si>
+  <si>
+    <t>Identifiant ISNI</t>
+  </si>
+  <si>
+    <t>Identifiant OpenAlex Structure</t>
+  </si>
+  <si>
+    <t>Identifiant OrgRef</t>
+  </si>
+  <si>
+    <t>ANR - id projet PIA</t>
+  </si>
+  <si>
+    <t>Id structure PiaWeb</t>
+  </si>
+  <si>
+    <t>Id projet PiaWeb</t>
+  </si>
+  <si>
+    <t>Identifiant PIC</t>
+  </si>
+  <si>
+    <t>Identifiant RCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ringgold id </t>
+  </si>
+  <si>
+    <t>Identifiant RNA</t>
+  </si>
+  <si>
+    <t>Identifiant RTOAD</t>
+  </si>
+  <si>
+    <t>ESGBU - id service documentaire</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -180,8 +253,21 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFCE9178"/>
+      <name val="Menlo"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,9 +286,21 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD94AD9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -210,73 +308,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -335,35 +402,345 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFD94AD9"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AN86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BL1004"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="U7" activeCellId="0" sqref="U7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BN2" sqref="BN2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="40.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="40.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="45"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="40.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="20" min="18" style="2" width="40.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="59.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="56.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="48"/>
+    <col min="6" max="6" width="45" style="1" customWidth="1"/>
+    <col min="14" max="14" width="40.5703125" style="2"/>
+    <col min="18" max="20" width="40.5703125" style="2"/>
+    <col min="23" max="23" width="59.7109375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="56.28515625" style="1" customWidth="1"/>
+    <col min="39" max="39" width="48" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:64" ht="30.75">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -412,10 +789,10 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="4" t="s">
@@ -433,10 +810,10 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="9" t="s">
         <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
@@ -460,10 +837,10 @@
       <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" s="11" t="s">
         <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
@@ -481,17 +858,93 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AN1" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64">
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="M2" s="7"/>
+      <c r="M2" s="6"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="Z2" s="15"/>
+      <c r="AF2" s="14"/>
       <c r="AI2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:64">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="J3" s="1"/>
@@ -499,456 +952,3874 @@
       <c r="AI3" s="1"/>
       <c r="AL3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:64">
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="M4" s="7"/>
+      <c r="M4" s="6"/>
       <c r="AI4" s="1"/>
       <c r="AL4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:64">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="AI5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:64">
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="M6" s="7"/>
+      <c r="M6" s="6"/>
       <c r="AL6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:64">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="AI7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:64">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="M8" s="7"/>
+      <c r="M8" s="6"/>
       <c r="AI8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:64">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="AI9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:64">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="M10" s="7"/>
+      <c r="M10" s="6"/>
       <c r="AI10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:64">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="AI11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:64">
       <c r="A12" s="1"/>
       <c r="C12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="M12" s="7"/>
+      <c r="M12" s="6"/>
       <c r="AI12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:64">
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="AI13" s="1"/>
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:64">
       <c r="A14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="M14" s="7"/>
+      <c r="M14" s="6"/>
       <c r="AI14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:64">
       <c r="A15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="AI15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:64">
       <c r="A16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="M16" s="7"/>
+      <c r="M16" s="6"/>
       <c r="AI16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:38">
       <c r="A17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="AI17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:38">
       <c r="A18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="M18" s="7"/>
+      <c r="M18" s="6"/>
       <c r="AA18" s="1"/>
       <c r="AC18" s="1"/>
       <c r="AI18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:38">
       <c r="A19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="AI19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:38">
       <c r="A20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="M20" s="7"/>
+      <c r="M20" s="6"/>
       <c r="AI20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:38">
       <c r="A21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="AC21" s="1"/>
       <c r="AI21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:38">
       <c r="A22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="M22" s="7"/>
+      <c r="M22" s="6"/>
       <c r="AI22" s="1"/>
       <c r="AL22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:38">
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="AI23" s="1"/>
       <c r="AL23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:38">
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="M24" s="7"/>
+      <c r="M24" s="6"/>
       <c r="AC24" s="1"/>
       <c r="AI24" s="1"/>
       <c r="AL24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:38">
       <c r="A25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="AI25" s="1"/>
       <c r="AL25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:38">
       <c r="A26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="M26" s="7"/>
+      <c r="M26" s="6"/>
       <c r="AI26" s="1"/>
       <c r="AL26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:38">
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="AC27" s="1"/>
       <c r="AI27" s="1"/>
       <c r="AL27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:38">
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="M28" s="7"/>
+      <c r="M28" s="6"/>
       <c r="AI28" s="1"/>
       <c r="AL28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:38">
       <c r="A29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="AI29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:38">
       <c r="A30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="M30" s="7"/>
+      <c r="M30" s="6"/>
       <c r="AI30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:38">
       <c r="A31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="AI31" s="1"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:38">
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="M32" s="7"/>
+      <c r="M32" s="6"/>
       <c r="AI32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:38">
       <c r="A33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="AI33" s="1"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:38">
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="M34" s="7"/>
+      <c r="M34" s="6"/>
       <c r="AI34" s="1"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:38">
       <c r="A35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="AI35" s="1"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:38">
       <c r="A36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="M36" s="7"/>
+      <c r="M36" s="6"/>
       <c r="AA36" s="1"/>
       <c r="AI36" s="1"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:38">
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="AI37" s="1"/>
       <c r="AL37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:38">
       <c r="A38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-      <c r="M38" s="7"/>
+      <c r="M38" s="6"/>
       <c r="AI38" s="1"/>
       <c r="AL38" s="1"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:38">
       <c r="A39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="AI39" s="1"/>
       <c r="AL39" s="1"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:38">
       <c r="A40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-      <c r="M40" s="7"/>
+      <c r="M40" s="6"/>
       <c r="AI40" s="1"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:38">
       <c r="A41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="AI41" s="1"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:38">
       <c r="A42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="M42" s="7"/>
+      <c r="M42" s="6"/>
       <c r="AI42" s="1"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:38">
       <c r="A43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="AI43" s="1"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:38">
       <c r="A44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="M44" s="7"/>
+      <c r="M44" s="6"/>
       <c r="AI44" s="1"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:38">
       <c r="A45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="AI45" s="1"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:38">
       <c r="A46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-      <c r="M46" s="7"/>
+      <c r="M46" s="6"/>
       <c r="AI46" s="1"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:38">
       <c r="A47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="AI47" s="1"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:38">
       <c r="A48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-      <c r="M48" s="7"/>
+      <c r="M48" s="6"/>
       <c r="AI48" s="1"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:35">
       <c r="A49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="AC49" s="1"/>
       <c r="AI49" s="1"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:35">
       <c r="A50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
-      <c r="M50" s="7"/>
+      <c r="M50" s="6"/>
       <c r="AI50" s="1"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:35">
       <c r="A51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="AI51" s="1"/>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:35">
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
-      <c r="M52" s="7"/>
+      <c r="M52" s="6"/>
       <c r="AI52" s="1"/>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:35">
       <c r="A53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="AI53" s="1"/>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:35">
       <c r="A54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
-      <c r="M54" s="7"/>
+      <c r="M54" s="6"/>
       <c r="AI54" s="1"/>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:35">
       <c r="J55" s="1"/>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:35">
       <c r="J56" s="1"/>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:35">
       <c r="J57" s="1"/>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:35">
       <c r="J58" s="1"/>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:35">
       <c r="J59" s="1"/>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:35">
       <c r="J60" s="1"/>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:35">
       <c r="J61" s="1"/>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:35">
       <c r="J62" s="1"/>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:35">
       <c r="J63" s="1"/>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:35">
       <c r="J64" s="1"/>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="10:10">
       <c r="J65" s="1"/>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="10:10">
       <c r="J66" s="1"/>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="10:10">
       <c r="J67" s="1"/>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="10:10">
       <c r="J68" s="1"/>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="10:10">
       <c r="J69" s="1"/>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="10:10">
       <c r="J70" s="1"/>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="10:10">
       <c r="J71" s="1"/>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="10:10">
       <c r="J72" s="1"/>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="10:10">
       <c r="J73" s="1"/>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="10:10">
       <c r="J74" s="1"/>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="10:10">
       <c r="J75" s="1"/>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="10:10">
       <c r="J76" s="1"/>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="10:10">
       <c r="J77" s="1"/>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="10:10">
       <c r="J78" s="1"/>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="10:10">
       <c r="J79" s="1"/>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="10:10">
       <c r="J80" s="1"/>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="10:32">
       <c r="J81" s="1"/>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="10:32">
       <c r="J82" s="1"/>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="10:32">
       <c r="J83" s="1"/>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="10:32">
       <c r="J84" s="1"/>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="10:32">
       <c r="J85" s="1"/>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="10:32">
       <c r="J86" s="1"/>
     </row>
+    <row r="87" spans="10:32">
+      <c r="Z87" s="15"/>
+      <c r="AF87" s="14"/>
+    </row>
+    <row r="88" spans="10:32">
+      <c r="Z88" s="15"/>
+      <c r="AF88" s="14"/>
+    </row>
+    <row r="89" spans="10:32">
+      <c r="Z89" s="15"/>
+      <c r="AF89" s="14"/>
+    </row>
+    <row r="90" spans="10:32">
+      <c r="Z90" s="15"/>
+      <c r="AF90" s="14"/>
+    </row>
+    <row r="91" spans="10:32">
+      <c r="Z91" s="15"/>
+      <c r="AF91" s="14"/>
+    </row>
+    <row r="92" spans="10:32">
+      <c r="Z92" s="15"/>
+      <c r="AF92" s="14"/>
+    </row>
+    <row r="93" spans="10:32">
+      <c r="Z93" s="15"/>
+      <c r="AF93" s="14"/>
+    </row>
+    <row r="94" spans="10:32">
+      <c r="Z94" s="15"/>
+      <c r="AF94" s="14"/>
+    </row>
+    <row r="95" spans="10:32">
+      <c r="Z95" s="15"/>
+      <c r="AF95" s="14"/>
+    </row>
+    <row r="96" spans="10:32">
+      <c r="Z96" s="15"/>
+      <c r="AF96" s="14"/>
+    </row>
+    <row r="97" spans="26:32">
+      <c r="Z97" s="15"/>
+      <c r="AF97" s="14"/>
+    </row>
+    <row r="98" spans="26:32">
+      <c r="Z98" s="15"/>
+      <c r="AF98" s="14"/>
+    </row>
+    <row r="99" spans="26:32">
+      <c r="Z99" s="15"/>
+      <c r="AF99" s="14"/>
+    </row>
+    <row r="100" spans="26:32">
+      <c r="Z100" s="15"/>
+      <c r="AF100" s="14"/>
+    </row>
+    <row r="101" spans="26:32">
+      <c r="Z101" s="15"/>
+      <c r="AF101" s="14"/>
+    </row>
+    <row r="102" spans="26:32">
+      <c r="Z102" s="15"/>
+      <c r="AF102" s="14"/>
+    </row>
+    <row r="103" spans="26:32">
+      <c r="Z103" s="15"/>
+      <c r="AF103" s="14"/>
+    </row>
+    <row r="104" spans="26:32">
+      <c r="Z104" s="15"/>
+      <c r="AF104" s="14"/>
+    </row>
+    <row r="105" spans="26:32">
+      <c r="Z105" s="15"/>
+      <c r="AF105" s="14"/>
+    </row>
+    <row r="106" spans="26:32">
+      <c r="Z106" s="15"/>
+      <c r="AF106" s="14"/>
+    </row>
+    <row r="107" spans="26:32">
+      <c r="Z107" s="15"/>
+      <c r="AF107" s="14"/>
+    </row>
+    <row r="108" spans="26:32">
+      <c r="Z108" s="15"/>
+      <c r="AF108" s="14"/>
+    </row>
+    <row r="109" spans="26:32">
+      <c r="Z109" s="15"/>
+      <c r="AF109" s="14"/>
+    </row>
+    <row r="110" spans="26:32">
+      <c r="Z110" s="15"/>
+      <c r="AF110" s="14"/>
+    </row>
+    <row r="111" spans="26:32">
+      <c r="Z111" s="15"/>
+      <c r="AF111" s="14"/>
+    </row>
+    <row r="112" spans="26:32">
+      <c r="Z112" s="15"/>
+      <c r="AF112" s="14"/>
+    </row>
+    <row r="113" spans="26:32">
+      <c r="Z113" s="15"/>
+      <c r="AF113" s="14"/>
+    </row>
+    <row r="114" spans="26:32">
+      <c r="Z114" s="15"/>
+      <c r="AF114" s="14"/>
+    </row>
+    <row r="115" spans="26:32">
+      <c r="Z115" s="15"/>
+      <c r="AF115" s="14"/>
+    </row>
+    <row r="116" spans="26:32">
+      <c r="Z116" s="15"/>
+      <c r="AF116" s="14"/>
+    </row>
+    <row r="117" spans="26:32">
+      <c r="Z117" s="15"/>
+      <c r="AF117" s="14"/>
+    </row>
+    <row r="118" spans="26:32">
+      <c r="Z118" s="15"/>
+      <c r="AF118" s="14"/>
+    </row>
+    <row r="119" spans="26:32">
+      <c r="Z119" s="15"/>
+      <c r="AF119" s="14"/>
+    </row>
+    <row r="120" spans="26:32">
+      <c r="Z120" s="15"/>
+      <c r="AF120" s="14"/>
+    </row>
+    <row r="121" spans="26:32">
+      <c r="Z121" s="15"/>
+      <c r="AF121" s="14"/>
+    </row>
+    <row r="122" spans="26:32">
+      <c r="Z122" s="15"/>
+      <c r="AF122" s="14"/>
+    </row>
+    <row r="123" spans="26:32">
+      <c r="Z123" s="15"/>
+      <c r="AF123" s="14"/>
+    </row>
+    <row r="124" spans="26:32">
+      <c r="Z124" s="15"/>
+      <c r="AF124" s="14"/>
+    </row>
+    <row r="125" spans="26:32">
+      <c r="Z125" s="15"/>
+      <c r="AF125" s="14"/>
+    </row>
+    <row r="126" spans="26:32">
+      <c r="Z126" s="15"/>
+      <c r="AF126" s="14"/>
+    </row>
+    <row r="127" spans="26:32">
+      <c r="Z127" s="15"/>
+      <c r="AF127" s="14"/>
+    </row>
+    <row r="128" spans="26:32">
+      <c r="Z128" s="15"/>
+      <c r="AF128" s="14"/>
+    </row>
+    <row r="129" spans="26:32">
+      <c r="Z129" s="15"/>
+      <c r="AF129" s="14"/>
+    </row>
+    <row r="130" spans="26:32">
+      <c r="Z130" s="15"/>
+      <c r="AF130" s="14"/>
+    </row>
+    <row r="131" spans="26:32">
+      <c r="Z131" s="15"/>
+      <c r="AF131" s="14"/>
+    </row>
+    <row r="132" spans="26:32">
+      <c r="Z132" s="15"/>
+      <c r="AF132" s="14"/>
+    </row>
+    <row r="133" spans="26:32">
+      <c r="Z133" s="15"/>
+      <c r="AF133" s="14"/>
+    </row>
+    <row r="134" spans="26:32">
+      <c r="Z134" s="15"/>
+      <c r="AF134" s="14"/>
+    </row>
+    <row r="135" spans="26:32">
+      <c r="Z135" s="15"/>
+      <c r="AF135" s="14"/>
+    </row>
+    <row r="136" spans="26:32">
+      <c r="Z136" s="15"/>
+      <c r="AF136" s="14"/>
+    </row>
+    <row r="137" spans="26:32">
+      <c r="Z137" s="15"/>
+      <c r="AF137" s="14"/>
+    </row>
+    <row r="138" spans="26:32">
+      <c r="Z138" s="15"/>
+      <c r="AF138" s="14"/>
+    </row>
+    <row r="139" spans="26:32">
+      <c r="Z139" s="15"/>
+      <c r="AF139" s="14"/>
+    </row>
+    <row r="140" spans="26:32">
+      <c r="Z140" s="15"/>
+      <c r="AF140" s="14"/>
+    </row>
+    <row r="141" spans="26:32">
+      <c r="Z141" s="15"/>
+      <c r="AF141" s="14"/>
+    </row>
+    <row r="142" spans="26:32">
+      <c r="Z142" s="15"/>
+      <c r="AF142" s="14"/>
+    </row>
+    <row r="143" spans="26:32">
+      <c r="Z143" s="15"/>
+      <c r="AF143" s="14"/>
+    </row>
+    <row r="144" spans="26:32">
+      <c r="Z144" s="15"/>
+      <c r="AF144" s="14"/>
+    </row>
+    <row r="145" spans="26:32">
+      <c r="Z145" s="15"/>
+      <c r="AF145" s="14"/>
+    </row>
+    <row r="146" spans="26:32">
+      <c r="Z146" s="15"/>
+      <c r="AF146" s="14"/>
+    </row>
+    <row r="147" spans="26:32">
+      <c r="Z147" s="15"/>
+      <c r="AF147" s="14"/>
+    </row>
+    <row r="148" spans="26:32">
+      <c r="Z148" s="15"/>
+      <c r="AF148" s="14"/>
+    </row>
+    <row r="149" spans="26:32">
+      <c r="Z149" s="15"/>
+      <c r="AF149" s="14"/>
+    </row>
+    <row r="150" spans="26:32">
+      <c r="Z150" s="15"/>
+      <c r="AF150" s="14"/>
+    </row>
+    <row r="151" spans="26:32">
+      <c r="Z151" s="15"/>
+      <c r="AF151" s="14"/>
+    </row>
+    <row r="152" spans="26:32">
+      <c r="Z152" s="15"/>
+      <c r="AF152" s="14"/>
+    </row>
+    <row r="153" spans="26:32">
+      <c r="Z153" s="15"/>
+      <c r="AF153" s="14"/>
+    </row>
+    <row r="154" spans="26:32">
+      <c r="Z154" s="15"/>
+      <c r="AF154" s="14"/>
+    </row>
+    <row r="155" spans="26:32">
+      <c r="Z155" s="15"/>
+      <c r="AF155" s="14"/>
+    </row>
+    <row r="156" spans="26:32">
+      <c r="Z156" s="15"/>
+      <c r="AF156" s="14"/>
+    </row>
+    <row r="157" spans="26:32">
+      <c r="Z157" s="15"/>
+      <c r="AF157" s="14"/>
+    </row>
+    <row r="158" spans="26:32">
+      <c r="Z158" s="15"/>
+      <c r="AF158" s="14"/>
+    </row>
+    <row r="159" spans="26:32">
+      <c r="Z159" s="15"/>
+      <c r="AF159" s="14"/>
+    </row>
+    <row r="160" spans="26:32">
+      <c r="Z160" s="15"/>
+      <c r="AF160" s="14"/>
+    </row>
+    <row r="161" spans="26:32">
+      <c r="Z161" s="15"/>
+      <c r="AF161" s="14"/>
+    </row>
+    <row r="162" spans="26:32">
+      <c r="Z162" s="15"/>
+      <c r="AF162" s="14"/>
+    </row>
+    <row r="163" spans="26:32">
+      <c r="Z163" s="15"/>
+      <c r="AF163" s="14"/>
+    </row>
+    <row r="164" spans="26:32">
+      <c r="Z164" s="15"/>
+      <c r="AF164" s="14"/>
+    </row>
+    <row r="165" spans="26:32">
+      <c r="Z165" s="15"/>
+      <c r="AF165" s="14"/>
+    </row>
+    <row r="166" spans="26:32">
+      <c r="Z166" s="15"/>
+      <c r="AF166" s="14"/>
+    </row>
+    <row r="167" spans="26:32">
+      <c r="Z167" s="15"/>
+      <c r="AF167" s="14"/>
+    </row>
+    <row r="168" spans="26:32">
+      <c r="Z168" s="15"/>
+      <c r="AF168" s="14"/>
+    </row>
+    <row r="169" spans="26:32">
+      <c r="Z169" s="15"/>
+      <c r="AF169" s="14"/>
+    </row>
+    <row r="170" spans="26:32">
+      <c r="Z170" s="15"/>
+      <c r="AF170" s="14"/>
+    </row>
+    <row r="171" spans="26:32">
+      <c r="Z171" s="15"/>
+      <c r="AF171" s="14"/>
+    </row>
+    <row r="172" spans="26:32">
+      <c r="Z172" s="15"/>
+      <c r="AF172" s="14"/>
+    </row>
+    <row r="173" spans="26:32">
+      <c r="Z173" s="15"/>
+      <c r="AF173" s="14"/>
+    </row>
+    <row r="174" spans="26:32">
+      <c r="Z174" s="15"/>
+      <c r="AF174" s="14"/>
+    </row>
+    <row r="175" spans="26:32">
+      <c r="Z175" s="15"/>
+      <c r="AF175" s="14"/>
+    </row>
+    <row r="176" spans="26:32">
+      <c r="Z176" s="15"/>
+      <c r="AF176" s="14"/>
+    </row>
+    <row r="177" spans="26:32">
+      <c r="Z177" s="15"/>
+      <c r="AF177" s="14"/>
+    </row>
+    <row r="178" spans="26:32">
+      <c r="Z178" s="15"/>
+      <c r="AF178" s="14"/>
+    </row>
+    <row r="179" spans="26:32">
+      <c r="Z179" s="15"/>
+      <c r="AF179" s="14"/>
+    </row>
+    <row r="180" spans="26:32">
+      <c r="Z180" s="15"/>
+      <c r="AF180" s="14"/>
+    </row>
+    <row r="181" spans="26:32">
+      <c r="Z181" s="15"/>
+      <c r="AF181" s="14"/>
+    </row>
+    <row r="182" spans="26:32">
+      <c r="Z182" s="15"/>
+      <c r="AF182" s="14"/>
+    </row>
+    <row r="183" spans="26:32">
+      <c r="Z183" s="15"/>
+      <c r="AF183" s="14"/>
+    </row>
+    <row r="184" spans="26:32">
+      <c r="Z184" s="15"/>
+      <c r="AF184" s="14"/>
+    </row>
+    <row r="185" spans="26:32">
+      <c r="Z185" s="15"/>
+      <c r="AF185" s="14"/>
+    </row>
+    <row r="186" spans="26:32">
+      <c r="Z186" s="15"/>
+      <c r="AF186" s="14"/>
+    </row>
+    <row r="187" spans="26:32">
+      <c r="Z187" s="15"/>
+      <c r="AF187" s="14"/>
+    </row>
+    <row r="188" spans="26:32">
+      <c r="Z188" s="15"/>
+      <c r="AF188" s="14"/>
+    </row>
+    <row r="189" spans="26:32">
+      <c r="Z189" s="15"/>
+      <c r="AF189" s="14"/>
+    </row>
+    <row r="190" spans="26:32">
+      <c r="Z190" s="15"/>
+      <c r="AF190" s="14"/>
+    </row>
+    <row r="191" spans="26:32">
+      <c r="Z191" s="15"/>
+      <c r="AF191" s="14"/>
+    </row>
+    <row r="192" spans="26:32">
+      <c r="Z192" s="15"/>
+      <c r="AF192" s="14"/>
+    </row>
+    <row r="193" spans="26:32">
+      <c r="Z193" s="15"/>
+      <c r="AF193" s="14"/>
+    </row>
+    <row r="194" spans="26:32">
+      <c r="Z194" s="15"/>
+      <c r="AF194" s="14"/>
+    </row>
+    <row r="195" spans="26:32">
+      <c r="Z195" s="15"/>
+      <c r="AF195" s="14"/>
+    </row>
+    <row r="196" spans="26:32">
+      <c r="Z196" s="15"/>
+      <c r="AF196" s="14"/>
+    </row>
+    <row r="197" spans="26:32">
+      <c r="Z197" s="15"/>
+      <c r="AF197" s="14"/>
+    </row>
+    <row r="198" spans="26:32">
+      <c r="Z198" s="15"/>
+      <c r="AF198" s="14"/>
+    </row>
+    <row r="199" spans="26:32">
+      <c r="Z199" s="15"/>
+      <c r="AF199" s="14"/>
+    </row>
+    <row r="200" spans="26:32">
+      <c r="Z200" s="15"/>
+      <c r="AF200" s="14"/>
+    </row>
+    <row r="201" spans="26:32">
+      <c r="Z201" s="15"/>
+      <c r="AF201" s="14"/>
+    </row>
+    <row r="202" spans="26:32">
+      <c r="Z202" s="15"/>
+      <c r="AF202" s="14"/>
+    </row>
+    <row r="203" spans="26:32">
+      <c r="Z203" s="15"/>
+      <c r="AF203" s="14"/>
+    </row>
+    <row r="204" spans="26:32">
+      <c r="Z204" s="15"/>
+      <c r="AF204" s="14"/>
+    </row>
+    <row r="205" spans="26:32">
+      <c r="Z205" s="15"/>
+      <c r="AF205" s="14"/>
+    </row>
+    <row r="206" spans="26:32">
+      <c r="Z206" s="15"/>
+      <c r="AF206" s="14"/>
+    </row>
+    <row r="207" spans="26:32">
+      <c r="Z207" s="15"/>
+      <c r="AF207" s="14"/>
+    </row>
+    <row r="208" spans="26:32">
+      <c r="Z208" s="15"/>
+      <c r="AF208" s="14"/>
+    </row>
+    <row r="209" spans="26:32">
+      <c r="Z209" s="15"/>
+      <c r="AF209" s="14"/>
+    </row>
+    <row r="210" spans="26:32">
+      <c r="Z210" s="15"/>
+      <c r="AF210" s="14"/>
+    </row>
+    <row r="211" spans="26:32">
+      <c r="Z211" s="15"/>
+      <c r="AF211" s="14"/>
+    </row>
+    <row r="212" spans="26:32">
+      <c r="Z212" s="15"/>
+      <c r="AF212" s="14"/>
+    </row>
+    <row r="213" spans="26:32">
+      <c r="Z213" s="15"/>
+      <c r="AF213" s="14"/>
+    </row>
+    <row r="214" spans="26:32">
+      <c r="Z214" s="15"/>
+      <c r="AF214" s="14"/>
+    </row>
+    <row r="215" spans="26:32">
+      <c r="Z215" s="15"/>
+      <c r="AF215" s="14"/>
+    </row>
+    <row r="216" spans="26:32">
+      <c r="Z216" s="15"/>
+      <c r="AF216" s="14"/>
+    </row>
+    <row r="217" spans="26:32">
+      <c r="Z217" s="15"/>
+      <c r="AF217" s="14"/>
+    </row>
+    <row r="218" spans="26:32">
+      <c r="Z218" s="15"/>
+      <c r="AF218" s="14"/>
+    </row>
+    <row r="219" spans="26:32">
+      <c r="Z219" s="15"/>
+      <c r="AF219" s="14"/>
+    </row>
+    <row r="220" spans="26:32">
+      <c r="Z220" s="15"/>
+      <c r="AF220" s="14"/>
+    </row>
+    <row r="221" spans="26:32">
+      <c r="Z221" s="15"/>
+      <c r="AF221" s="14"/>
+    </row>
+    <row r="222" spans="26:32">
+      <c r="Z222" s="15"/>
+      <c r="AF222" s="14"/>
+    </row>
+    <row r="223" spans="26:32">
+      <c r="Z223" s="15"/>
+      <c r="AF223" s="14"/>
+    </row>
+    <row r="224" spans="26:32">
+      <c r="Z224" s="15"/>
+      <c r="AF224" s="14"/>
+    </row>
+    <row r="225" spans="26:32">
+      <c r="Z225" s="15"/>
+      <c r="AF225" s="14"/>
+    </row>
+    <row r="226" spans="26:32">
+      <c r="Z226" s="15"/>
+      <c r="AF226" s="14"/>
+    </row>
+    <row r="227" spans="26:32">
+      <c r="Z227" s="15"/>
+      <c r="AF227" s="14"/>
+    </row>
+    <row r="228" spans="26:32">
+      <c r="Z228" s="15"/>
+      <c r="AF228" s="14"/>
+    </row>
+    <row r="229" spans="26:32">
+      <c r="Z229" s="15"/>
+      <c r="AF229" s="14"/>
+    </row>
+    <row r="230" spans="26:32">
+      <c r="Z230" s="15"/>
+      <c r="AF230" s="14"/>
+    </row>
+    <row r="231" spans="26:32">
+      <c r="Z231" s="15"/>
+      <c r="AF231" s="14"/>
+    </row>
+    <row r="232" spans="26:32">
+      <c r="Z232" s="15"/>
+      <c r="AF232" s="14"/>
+    </row>
+    <row r="233" spans="26:32">
+      <c r="Z233" s="15"/>
+      <c r="AF233" s="14"/>
+    </row>
+    <row r="234" spans="26:32">
+      <c r="Z234" s="15"/>
+      <c r="AF234" s="14"/>
+    </row>
+    <row r="235" spans="26:32">
+      <c r="Z235" s="15"/>
+      <c r="AF235" s="14"/>
+    </row>
+    <row r="236" spans="26:32">
+      <c r="Z236" s="15"/>
+      <c r="AF236" s="14"/>
+    </row>
+    <row r="237" spans="26:32">
+      <c r="Z237" s="15"/>
+      <c r="AF237" s="14"/>
+    </row>
+    <row r="238" spans="26:32">
+      <c r="Z238" s="15"/>
+      <c r="AF238" s="14"/>
+    </row>
+    <row r="239" spans="26:32">
+      <c r="Z239" s="15"/>
+      <c r="AF239" s="14"/>
+    </row>
+    <row r="240" spans="26:32">
+      <c r="Z240" s="15"/>
+      <c r="AF240" s="14"/>
+    </row>
+    <row r="241" spans="26:32">
+      <c r="Z241" s="15"/>
+      <c r="AF241" s="14"/>
+    </row>
+    <row r="242" spans="26:32">
+      <c r="Z242" s="15"/>
+      <c r="AF242" s="14"/>
+    </row>
+    <row r="243" spans="26:32">
+      <c r="Z243" s="15"/>
+      <c r="AF243" s="14"/>
+    </row>
+    <row r="244" spans="26:32">
+      <c r="Z244" s="15"/>
+      <c r="AF244" s="14"/>
+    </row>
+    <row r="245" spans="26:32">
+      <c r="Z245" s="15"/>
+      <c r="AF245" s="14"/>
+    </row>
+    <row r="246" spans="26:32">
+      <c r="Z246" s="15"/>
+      <c r="AF246" s="14"/>
+    </row>
+    <row r="247" spans="26:32">
+      <c r="Z247" s="15"/>
+      <c r="AF247" s="14"/>
+    </row>
+    <row r="248" spans="26:32">
+      <c r="Z248" s="15"/>
+      <c r="AF248" s="14"/>
+    </row>
+    <row r="249" spans="26:32">
+      <c r="Z249" s="15"/>
+      <c r="AF249" s="14"/>
+    </row>
+    <row r="250" spans="26:32">
+      <c r="Z250" s="15"/>
+      <c r="AF250" s="14"/>
+    </row>
+    <row r="251" spans="26:32">
+      <c r="Z251" s="15"/>
+      <c r="AF251" s="14"/>
+    </row>
+    <row r="252" spans="26:32">
+      <c r="Z252" s="15"/>
+      <c r="AF252" s="14"/>
+    </row>
+    <row r="253" spans="26:32">
+      <c r="Z253" s="15"/>
+      <c r="AF253" s="14"/>
+    </row>
+    <row r="254" spans="26:32">
+      <c r="Z254" s="15"/>
+      <c r="AF254" s="14"/>
+    </row>
+    <row r="255" spans="26:32">
+      <c r="Z255" s="15"/>
+      <c r="AF255" s="14"/>
+    </row>
+    <row r="256" spans="26:32">
+      <c r="Z256" s="15"/>
+      <c r="AF256" s="14"/>
+    </row>
+    <row r="257" spans="26:32">
+      <c r="Z257" s="15"/>
+      <c r="AF257" s="14"/>
+    </row>
+    <row r="258" spans="26:32">
+      <c r="Z258" s="15"/>
+      <c r="AF258" s="14"/>
+    </row>
+    <row r="259" spans="26:32">
+      <c r="Z259" s="15"/>
+      <c r="AF259" s="14"/>
+    </row>
+    <row r="260" spans="26:32">
+      <c r="Z260" s="15"/>
+      <c r="AF260" s="14"/>
+    </row>
+    <row r="261" spans="26:32">
+      <c r="Z261" s="15"/>
+      <c r="AF261" s="14"/>
+    </row>
+    <row r="262" spans="26:32">
+      <c r="Z262" s="15"/>
+      <c r="AF262" s="14"/>
+    </row>
+    <row r="263" spans="26:32">
+      <c r="Z263" s="15"/>
+      <c r="AF263" s="14"/>
+    </row>
+    <row r="264" spans="26:32">
+      <c r="Z264" s="15"/>
+      <c r="AF264" s="14"/>
+    </row>
+    <row r="265" spans="26:32">
+      <c r="Z265" s="15"/>
+      <c r="AF265" s="14"/>
+    </row>
+    <row r="266" spans="26:32">
+      <c r="Z266" s="15"/>
+      <c r="AF266" s="14"/>
+    </row>
+    <row r="267" spans="26:32">
+      <c r="Z267" s="15"/>
+      <c r="AF267" s="14"/>
+    </row>
+    <row r="268" spans="26:32">
+      <c r="Z268" s="15"/>
+      <c r="AF268" s="14"/>
+    </row>
+    <row r="269" spans="26:32">
+      <c r="Z269" s="15"/>
+      <c r="AF269" s="14"/>
+    </row>
+    <row r="270" spans="26:32">
+      <c r="Z270" s="15"/>
+      <c r="AF270" s="14"/>
+    </row>
+    <row r="271" spans="26:32">
+      <c r="Z271" s="15"/>
+      <c r="AF271" s="14"/>
+    </row>
+    <row r="272" spans="26:32">
+      <c r="Z272" s="15"/>
+      <c r="AF272" s="14"/>
+    </row>
+    <row r="273" spans="26:32">
+      <c r="Z273" s="15"/>
+      <c r="AF273" s="14"/>
+    </row>
+    <row r="274" spans="26:32">
+      <c r="Z274" s="15"/>
+      <c r="AF274" s="14"/>
+    </row>
+    <row r="275" spans="26:32">
+      <c r="Z275" s="15"/>
+      <c r="AF275" s="14"/>
+    </row>
+    <row r="276" spans="26:32">
+      <c r="Z276" s="15"/>
+      <c r="AF276" s="14"/>
+    </row>
+    <row r="277" spans="26:32">
+      <c r="Z277" s="15"/>
+      <c r="AF277" s="14"/>
+    </row>
+    <row r="278" spans="26:32">
+      <c r="Z278" s="15"/>
+      <c r="AF278" s="14"/>
+    </row>
+    <row r="279" spans="26:32">
+      <c r="Z279" s="15"/>
+      <c r="AF279" s="14"/>
+    </row>
+    <row r="280" spans="26:32">
+      <c r="Z280" s="15"/>
+      <c r="AF280" s="14"/>
+    </row>
+    <row r="281" spans="26:32">
+      <c r="Z281" s="15"/>
+      <c r="AF281" s="14"/>
+    </row>
+    <row r="282" spans="26:32">
+      <c r="Z282" s="15"/>
+      <c r="AF282" s="14"/>
+    </row>
+    <row r="283" spans="26:32">
+      <c r="Z283" s="15"/>
+      <c r="AF283" s="14"/>
+    </row>
+    <row r="284" spans="26:32">
+      <c r="Z284" s="15"/>
+      <c r="AF284" s="14"/>
+    </row>
+    <row r="285" spans="26:32">
+      <c r="Z285" s="15"/>
+      <c r="AF285" s="14"/>
+    </row>
+    <row r="286" spans="26:32">
+      <c r="Z286" s="15"/>
+      <c r="AF286" s="14"/>
+    </row>
+    <row r="287" spans="26:32">
+      <c r="Z287" s="15"/>
+      <c r="AF287" s="14"/>
+    </row>
+    <row r="288" spans="26:32">
+      <c r="Z288" s="15"/>
+      <c r="AF288" s="14"/>
+    </row>
+    <row r="289" spans="26:32">
+      <c r="Z289" s="15"/>
+      <c r="AF289" s="14"/>
+    </row>
+    <row r="290" spans="26:32">
+      <c r="Z290" s="15"/>
+      <c r="AF290" s="14"/>
+    </row>
+    <row r="291" spans="26:32">
+      <c r="Z291" s="15"/>
+      <c r="AF291" s="14"/>
+    </row>
+    <row r="292" spans="26:32">
+      <c r="Z292" s="15"/>
+      <c r="AF292" s="14"/>
+    </row>
+    <row r="293" spans="26:32">
+      <c r="Z293" s="15"/>
+      <c r="AF293" s="14"/>
+    </row>
+    <row r="294" spans="26:32">
+      <c r="Z294" s="15"/>
+      <c r="AF294" s="14"/>
+    </row>
+    <row r="295" spans="26:32">
+      <c r="Z295" s="15"/>
+      <c r="AF295" s="14"/>
+    </row>
+    <row r="296" spans="26:32">
+      <c r="Z296" s="15"/>
+      <c r="AF296" s="14"/>
+    </row>
+    <row r="297" spans="26:32">
+      <c r="Z297" s="15"/>
+      <c r="AF297" s="14"/>
+    </row>
+    <row r="298" spans="26:32">
+      <c r="Z298" s="15"/>
+      <c r="AF298" s="14"/>
+    </row>
+    <row r="299" spans="26:32">
+      <c r="Z299" s="15"/>
+      <c r="AF299" s="14"/>
+    </row>
+    <row r="300" spans="26:32">
+      <c r="Z300" s="15"/>
+      <c r="AF300" s="14"/>
+    </row>
+    <row r="301" spans="26:32">
+      <c r="Z301" s="15"/>
+      <c r="AF301" s="14"/>
+    </row>
+    <row r="302" spans="26:32">
+      <c r="Z302" s="15"/>
+      <c r="AF302" s="14"/>
+    </row>
+    <row r="303" spans="26:32">
+      <c r="Z303" s="15"/>
+      <c r="AF303" s="14"/>
+    </row>
+    <row r="304" spans="26:32">
+      <c r="Z304" s="15"/>
+      <c r="AF304" s="14"/>
+    </row>
+    <row r="305" spans="26:32">
+      <c r="Z305" s="15"/>
+      <c r="AF305" s="14"/>
+    </row>
+    <row r="306" spans="26:32">
+      <c r="Z306" s="15"/>
+      <c r="AF306" s="14"/>
+    </row>
+    <row r="307" spans="26:32">
+      <c r="Z307" s="15"/>
+      <c r="AF307" s="14"/>
+    </row>
+    <row r="308" spans="26:32">
+      <c r="Z308" s="15"/>
+      <c r="AF308" s="14"/>
+    </row>
+    <row r="309" spans="26:32">
+      <c r="Z309" s="15"/>
+      <c r="AF309" s="14"/>
+    </row>
+    <row r="310" spans="26:32">
+      <c r="Z310" s="15"/>
+      <c r="AF310" s="14"/>
+    </row>
+    <row r="311" spans="26:32">
+      <c r="Z311" s="15"/>
+      <c r="AF311" s="14"/>
+    </row>
+    <row r="312" spans="26:32">
+      <c r="Z312" s="15"/>
+      <c r="AF312" s="14"/>
+    </row>
+    <row r="313" spans="26:32">
+      <c r="Z313" s="15"/>
+      <c r="AF313" s="14"/>
+    </row>
+    <row r="314" spans="26:32">
+      <c r="Z314" s="15"/>
+      <c r="AF314" s="14"/>
+    </row>
+    <row r="315" spans="26:32">
+      <c r="Z315" s="15"/>
+      <c r="AF315" s="14"/>
+    </row>
+    <row r="316" spans="26:32">
+      <c r="Z316" s="15"/>
+      <c r="AF316" s="14"/>
+    </row>
+    <row r="317" spans="26:32">
+      <c r="Z317" s="15"/>
+      <c r="AF317" s="14"/>
+    </row>
+    <row r="318" spans="26:32">
+      <c r="Z318" s="15"/>
+      <c r="AF318" s="14"/>
+    </row>
+    <row r="319" spans="26:32">
+      <c r="Z319" s="15"/>
+      <c r="AF319" s="14"/>
+    </row>
+    <row r="320" spans="26:32">
+      <c r="Z320" s="15"/>
+      <c r="AF320" s="14"/>
+    </row>
+    <row r="321" spans="26:32">
+      <c r="Z321" s="15"/>
+      <c r="AF321" s="14"/>
+    </row>
+    <row r="322" spans="26:32">
+      <c r="Z322" s="15"/>
+      <c r="AF322" s="14"/>
+    </row>
+    <row r="323" spans="26:32">
+      <c r="Z323" s="15"/>
+      <c r="AF323" s="14"/>
+    </row>
+    <row r="324" spans="26:32">
+      <c r="Z324" s="15"/>
+      <c r="AF324" s="14"/>
+    </row>
+    <row r="325" spans="26:32">
+      <c r="Z325" s="15"/>
+      <c r="AF325" s="14"/>
+    </row>
+    <row r="326" spans="26:32">
+      <c r="Z326" s="15"/>
+      <c r="AF326" s="14"/>
+    </row>
+    <row r="327" spans="26:32">
+      <c r="Z327" s="15"/>
+      <c r="AF327" s="14"/>
+    </row>
+    <row r="328" spans="26:32">
+      <c r="Z328" s="15"/>
+      <c r="AF328" s="14"/>
+    </row>
+    <row r="329" spans="26:32">
+      <c r="Z329" s="15"/>
+      <c r="AF329" s="14"/>
+    </row>
+    <row r="330" spans="26:32">
+      <c r="Z330" s="15"/>
+      <c r="AF330" s="14"/>
+    </row>
+    <row r="331" spans="26:32">
+      <c r="Z331" s="15"/>
+      <c r="AF331" s="14"/>
+    </row>
+    <row r="332" spans="26:32">
+      <c r="Z332" s="15"/>
+      <c r="AF332" s="14"/>
+    </row>
+    <row r="333" spans="26:32">
+      <c r="Z333" s="15"/>
+      <c r="AF333" s="14"/>
+    </row>
+    <row r="334" spans="26:32">
+      <c r="Z334" s="15"/>
+      <c r="AF334" s="14"/>
+    </row>
+    <row r="335" spans="26:32">
+      <c r="Z335" s="15"/>
+      <c r="AF335" s="14"/>
+    </row>
+    <row r="336" spans="26:32">
+      <c r="Z336" s="15"/>
+      <c r="AF336" s="14"/>
+    </row>
+    <row r="337" spans="26:32">
+      <c r="Z337" s="15"/>
+      <c r="AF337" s="14"/>
+    </row>
+    <row r="338" spans="26:32">
+      <c r="Z338" s="15"/>
+      <c r="AF338" s="14"/>
+    </row>
+    <row r="339" spans="26:32">
+      <c r="Z339" s="15"/>
+      <c r="AF339" s="14"/>
+    </row>
+    <row r="340" spans="26:32">
+      <c r="Z340" s="15"/>
+      <c r="AF340" s="14"/>
+    </row>
+    <row r="341" spans="26:32">
+      <c r="Z341" s="15"/>
+      <c r="AF341" s="14"/>
+    </row>
+    <row r="342" spans="26:32">
+      <c r="Z342" s="15"/>
+      <c r="AF342" s="14"/>
+    </row>
+    <row r="343" spans="26:32">
+      <c r="Z343" s="15"/>
+      <c r="AF343" s="14"/>
+    </row>
+    <row r="344" spans="26:32">
+      <c r="Z344" s="15"/>
+      <c r="AF344" s="14"/>
+    </row>
+    <row r="345" spans="26:32">
+      <c r="Z345" s="15"/>
+      <c r="AF345" s="14"/>
+    </row>
+    <row r="346" spans="26:32">
+      <c r="Z346" s="15"/>
+      <c r="AF346" s="14"/>
+    </row>
+    <row r="347" spans="26:32">
+      <c r="Z347" s="15"/>
+      <c r="AF347" s="14"/>
+    </row>
+    <row r="348" spans="26:32">
+      <c r="Z348" s="15"/>
+      <c r="AF348" s="14"/>
+    </row>
+    <row r="349" spans="26:32">
+      <c r="Z349" s="15"/>
+      <c r="AF349" s="14"/>
+    </row>
+    <row r="350" spans="26:32">
+      <c r="Z350" s="15"/>
+      <c r="AF350" s="14"/>
+    </row>
+    <row r="351" spans="26:32">
+      <c r="Z351" s="15"/>
+      <c r="AF351" s="14"/>
+    </row>
+    <row r="352" spans="26:32">
+      <c r="Z352" s="15"/>
+      <c r="AF352" s="14"/>
+    </row>
+    <row r="353" spans="26:32">
+      <c r="Z353" s="15"/>
+      <c r="AF353" s="14"/>
+    </row>
+    <row r="354" spans="26:32">
+      <c r="Z354" s="15"/>
+      <c r="AF354" s="14"/>
+    </row>
+    <row r="355" spans="26:32">
+      <c r="Z355" s="15"/>
+      <c r="AF355" s="14"/>
+    </row>
+    <row r="356" spans="26:32">
+      <c r="Z356" s="15"/>
+      <c r="AF356" s="14"/>
+    </row>
+    <row r="357" spans="26:32">
+      <c r="Z357" s="15"/>
+      <c r="AF357" s="14"/>
+    </row>
+    <row r="358" spans="26:32">
+      <c r="Z358" s="15"/>
+      <c r="AF358" s="14"/>
+    </row>
+    <row r="359" spans="26:32">
+      <c r="Z359" s="15"/>
+      <c r="AF359" s="14"/>
+    </row>
+    <row r="360" spans="26:32">
+      <c r="Z360" s="15"/>
+      <c r="AF360" s="14"/>
+    </row>
+    <row r="361" spans="26:32">
+      <c r="Z361" s="15"/>
+      <c r="AF361" s="14"/>
+    </row>
+    <row r="362" spans="26:32">
+      <c r="Z362" s="15"/>
+      <c r="AF362" s="14"/>
+    </row>
+    <row r="363" spans="26:32">
+      <c r="Z363" s="15"/>
+      <c r="AF363" s="14"/>
+    </row>
+    <row r="364" spans="26:32">
+      <c r="Z364" s="15"/>
+      <c r="AF364" s="14"/>
+    </row>
+    <row r="365" spans="26:32">
+      <c r="Z365" s="15"/>
+      <c r="AF365" s="14"/>
+    </row>
+    <row r="366" spans="26:32">
+      <c r="Z366" s="15"/>
+      <c r="AF366" s="14"/>
+    </row>
+    <row r="367" spans="26:32">
+      <c r="Z367" s="15"/>
+      <c r="AF367" s="14"/>
+    </row>
+    <row r="368" spans="26:32">
+      <c r="Z368" s="15"/>
+      <c r="AF368" s="14"/>
+    </row>
+    <row r="369" spans="26:32">
+      <c r="Z369" s="15"/>
+      <c r="AF369" s="14"/>
+    </row>
+    <row r="370" spans="26:32">
+      <c r="Z370" s="15"/>
+      <c r="AF370" s="14"/>
+    </row>
+    <row r="371" spans="26:32">
+      <c r="Z371" s="15"/>
+      <c r="AF371" s="14"/>
+    </row>
+    <row r="372" spans="26:32">
+      <c r="Z372" s="15"/>
+      <c r="AF372" s="14"/>
+    </row>
+    <row r="373" spans="26:32">
+      <c r="Z373" s="15"/>
+      <c r="AF373" s="14"/>
+    </row>
+    <row r="374" spans="26:32">
+      <c r="Z374" s="15"/>
+      <c r="AF374" s="14"/>
+    </row>
+    <row r="375" spans="26:32">
+      <c r="Z375" s="15"/>
+      <c r="AF375" s="14"/>
+    </row>
+    <row r="376" spans="26:32">
+      <c r="Z376" s="15"/>
+      <c r="AF376" s="14"/>
+    </row>
+    <row r="377" spans="26:32">
+      <c r="Z377" s="15"/>
+      <c r="AF377" s="14"/>
+    </row>
+    <row r="378" spans="26:32">
+      <c r="Z378" s="15"/>
+      <c r="AF378" s="14"/>
+    </row>
+    <row r="379" spans="26:32">
+      <c r="Z379" s="15"/>
+      <c r="AF379" s="14"/>
+    </row>
+    <row r="380" spans="26:32">
+      <c r="Z380" s="15"/>
+      <c r="AF380" s="14"/>
+    </row>
+    <row r="381" spans="26:32">
+      <c r="Z381" s="15"/>
+      <c r="AF381" s="14"/>
+    </row>
+    <row r="382" spans="26:32">
+      <c r="Z382" s="15"/>
+      <c r="AF382" s="14"/>
+    </row>
+    <row r="383" spans="26:32">
+      <c r="Z383" s="15"/>
+      <c r="AF383" s="14"/>
+    </row>
+    <row r="384" spans="26:32">
+      <c r="Z384" s="15"/>
+      <c r="AF384" s="14"/>
+    </row>
+    <row r="385" spans="26:32">
+      <c r="Z385" s="15"/>
+      <c r="AF385" s="14"/>
+    </row>
+    <row r="386" spans="26:32">
+      <c r="Z386" s="15"/>
+      <c r="AF386" s="14"/>
+    </row>
+    <row r="387" spans="26:32">
+      <c r="Z387" s="15"/>
+      <c r="AF387" s="14"/>
+    </row>
+    <row r="388" spans="26:32">
+      <c r="Z388" s="15"/>
+      <c r="AF388" s="14"/>
+    </row>
+    <row r="389" spans="26:32">
+      <c r="Z389" s="15"/>
+      <c r="AF389" s="14"/>
+    </row>
+    <row r="390" spans="26:32">
+      <c r="Z390" s="15"/>
+      <c r="AF390" s="14"/>
+    </row>
+    <row r="391" spans="26:32">
+      <c r="Z391" s="15"/>
+      <c r="AF391" s="14"/>
+    </row>
+    <row r="392" spans="26:32">
+      <c r="Z392" s="15"/>
+      <c r="AF392" s="14"/>
+    </row>
+    <row r="393" spans="26:32">
+      <c r="Z393" s="15"/>
+      <c r="AF393" s="14"/>
+    </row>
+    <row r="394" spans="26:32">
+      <c r="Z394" s="15"/>
+      <c r="AF394" s="14"/>
+    </row>
+    <row r="395" spans="26:32">
+      <c r="Z395" s="15"/>
+      <c r="AF395" s="14"/>
+    </row>
+    <row r="396" spans="26:32">
+      <c r="Z396" s="15"/>
+      <c r="AF396" s="14"/>
+    </row>
+    <row r="397" spans="26:32">
+      <c r="Z397" s="15"/>
+      <c r="AF397" s="14"/>
+    </row>
+    <row r="398" spans="26:32">
+      <c r="Z398" s="15"/>
+      <c r="AF398" s="14"/>
+    </row>
+    <row r="399" spans="26:32">
+      <c r="Z399" s="15"/>
+      <c r="AF399" s="14"/>
+    </row>
+    <row r="400" spans="26:32">
+      <c r="Z400" s="15"/>
+      <c r="AF400" s="14"/>
+    </row>
+    <row r="401" spans="26:32">
+      <c r="Z401" s="15"/>
+      <c r="AF401" s="14"/>
+    </row>
+    <row r="402" spans="26:32">
+      <c r="Z402" s="15"/>
+      <c r="AF402" s="14"/>
+    </row>
+    <row r="403" spans="26:32">
+      <c r="Z403" s="15"/>
+      <c r="AF403" s="14"/>
+    </row>
+    <row r="404" spans="26:32">
+      <c r="Z404" s="15"/>
+      <c r="AF404" s="14"/>
+    </row>
+    <row r="405" spans="26:32">
+      <c r="Z405" s="15"/>
+      <c r="AF405" s="14"/>
+    </row>
+    <row r="406" spans="26:32">
+      <c r="Z406" s="15"/>
+      <c r="AF406" s="14"/>
+    </row>
+    <row r="407" spans="26:32">
+      <c r="Z407" s="15"/>
+      <c r="AF407" s="14"/>
+    </row>
+    <row r="408" spans="26:32">
+      <c r="Z408" s="15"/>
+      <c r="AF408" s="14"/>
+    </row>
+    <row r="409" spans="26:32">
+      <c r="Z409" s="15"/>
+      <c r="AF409" s="14"/>
+    </row>
+    <row r="410" spans="26:32">
+      <c r="Z410" s="15"/>
+      <c r="AF410" s="14"/>
+    </row>
+    <row r="411" spans="26:32">
+      <c r="Z411" s="15"/>
+      <c r="AF411" s="14"/>
+    </row>
+    <row r="412" spans="26:32">
+      <c r="Z412" s="15"/>
+      <c r="AF412" s="14"/>
+    </row>
+    <row r="413" spans="26:32">
+      <c r="Z413" s="15"/>
+      <c r="AF413" s="14"/>
+    </row>
+    <row r="414" spans="26:32">
+      <c r="Z414" s="15"/>
+      <c r="AF414" s="14"/>
+    </row>
+    <row r="415" spans="26:32">
+      <c r="Z415" s="15"/>
+      <c r="AF415" s="14"/>
+    </row>
+    <row r="416" spans="26:32">
+      <c r="Z416" s="15"/>
+      <c r="AF416" s="14"/>
+    </row>
+    <row r="417" spans="26:32">
+      <c r="Z417" s="15"/>
+      <c r="AF417" s="14"/>
+    </row>
+    <row r="418" spans="26:32">
+      <c r="Z418" s="15"/>
+      <c r="AF418" s="14"/>
+    </row>
+    <row r="419" spans="26:32">
+      <c r="Z419" s="15"/>
+      <c r="AF419" s="14"/>
+    </row>
+    <row r="420" spans="26:32">
+      <c r="Z420" s="15"/>
+      <c r="AF420" s="14"/>
+    </row>
+    <row r="421" spans="26:32">
+      <c r="Z421" s="15"/>
+      <c r="AF421" s="14"/>
+    </row>
+    <row r="422" spans="26:32">
+      <c r="Z422" s="15"/>
+      <c r="AF422" s="14"/>
+    </row>
+    <row r="423" spans="26:32">
+      <c r="Z423" s="15"/>
+      <c r="AF423" s="14"/>
+    </row>
+    <row r="424" spans="26:32">
+      <c r="Z424" s="15"/>
+      <c r="AF424" s="14"/>
+    </row>
+    <row r="425" spans="26:32">
+      <c r="Z425" s="15"/>
+      <c r="AF425" s="14"/>
+    </row>
+    <row r="426" spans="26:32">
+      <c r="Z426" s="15"/>
+      <c r="AF426" s="14"/>
+    </row>
+    <row r="427" spans="26:32">
+      <c r="Z427" s="15"/>
+      <c r="AF427" s="14"/>
+    </row>
+    <row r="428" spans="26:32">
+      <c r="Z428" s="15"/>
+      <c r="AF428" s="14"/>
+    </row>
+    <row r="429" spans="26:32">
+      <c r="Z429" s="15"/>
+      <c r="AF429" s="14"/>
+    </row>
+    <row r="430" spans="26:32">
+      <c r="Z430" s="15"/>
+      <c r="AF430" s="14"/>
+    </row>
+    <row r="431" spans="26:32">
+      <c r="Z431" s="15"/>
+      <c r="AF431" s="14"/>
+    </row>
+    <row r="432" spans="26:32">
+      <c r="Z432" s="15"/>
+      <c r="AF432" s="14"/>
+    </row>
+    <row r="433" spans="26:32">
+      <c r="Z433" s="15"/>
+      <c r="AF433" s="14"/>
+    </row>
+    <row r="434" spans="26:32">
+      <c r="Z434" s="15"/>
+      <c r="AF434" s="14"/>
+    </row>
+    <row r="435" spans="26:32">
+      <c r="Z435" s="15"/>
+      <c r="AF435" s="14"/>
+    </row>
+    <row r="436" spans="26:32">
+      <c r="Z436" s="15"/>
+      <c r="AF436" s="14"/>
+    </row>
+    <row r="437" spans="26:32">
+      <c r="Z437" s="15"/>
+      <c r="AF437" s="14"/>
+    </row>
+    <row r="438" spans="26:32">
+      <c r="Z438" s="15"/>
+      <c r="AF438" s="14"/>
+    </row>
+    <row r="439" spans="26:32">
+      <c r="Z439" s="15"/>
+      <c r="AF439" s="14"/>
+    </row>
+    <row r="440" spans="26:32">
+      <c r="Z440" s="15"/>
+      <c r="AF440" s="14"/>
+    </row>
+    <row r="441" spans="26:32">
+      <c r="Z441" s="15"/>
+      <c r="AF441" s="14"/>
+    </row>
+    <row r="442" spans="26:32">
+      <c r="Z442" s="15"/>
+      <c r="AF442" s="14"/>
+    </row>
+    <row r="443" spans="26:32">
+      <c r="Z443" s="15"/>
+      <c r="AF443" s="14"/>
+    </row>
+    <row r="444" spans="26:32">
+      <c r="Z444" s="15"/>
+      <c r="AF444" s="14"/>
+    </row>
+    <row r="445" spans="26:32">
+      <c r="Z445" s="15"/>
+      <c r="AF445" s="14"/>
+    </row>
+    <row r="446" spans="26:32">
+      <c r="Z446" s="15"/>
+      <c r="AF446" s="14"/>
+    </row>
+    <row r="447" spans="26:32">
+      <c r="Z447" s="15"/>
+      <c r="AF447" s="14"/>
+    </row>
+    <row r="448" spans="26:32">
+      <c r="Z448" s="15"/>
+      <c r="AF448" s="14"/>
+    </row>
+    <row r="449" spans="26:32">
+      <c r="Z449" s="15"/>
+      <c r="AF449" s="14"/>
+    </row>
+    <row r="450" spans="26:32">
+      <c r="Z450" s="15"/>
+      <c r="AF450" s="14"/>
+    </row>
+    <row r="451" spans="26:32">
+      <c r="Z451" s="15"/>
+      <c r="AF451" s="14"/>
+    </row>
+    <row r="452" spans="26:32">
+      <c r="Z452" s="15"/>
+      <c r="AF452" s="14"/>
+    </row>
+    <row r="453" spans="26:32">
+      <c r="Z453" s="15"/>
+      <c r="AF453" s="14"/>
+    </row>
+    <row r="454" spans="26:32">
+      <c r="Z454" s="15"/>
+      <c r="AF454" s="14"/>
+    </row>
+    <row r="455" spans="26:32">
+      <c r="Z455" s="15"/>
+      <c r="AF455" s="14"/>
+    </row>
+    <row r="456" spans="26:32">
+      <c r="Z456" s="15"/>
+      <c r="AF456" s="14"/>
+    </row>
+    <row r="457" spans="26:32">
+      <c r="Z457" s="15"/>
+      <c r="AF457" s="14"/>
+    </row>
+    <row r="458" spans="26:32">
+      <c r="Z458" s="15"/>
+      <c r="AF458" s="14"/>
+    </row>
+    <row r="459" spans="26:32">
+      <c r="Z459" s="15"/>
+      <c r="AF459" s="14"/>
+    </row>
+    <row r="460" spans="26:32">
+      <c r="Z460" s="15"/>
+      <c r="AF460" s="14"/>
+    </row>
+    <row r="461" spans="26:32">
+      <c r="Z461" s="15"/>
+      <c r="AF461" s="14"/>
+    </row>
+    <row r="462" spans="26:32">
+      <c r="Z462" s="15"/>
+      <c r="AF462" s="14"/>
+    </row>
+    <row r="463" spans="26:32">
+      <c r="Z463" s="15"/>
+      <c r="AF463" s="14"/>
+    </row>
+    <row r="464" spans="26:32">
+      <c r="Z464" s="15"/>
+      <c r="AF464" s="14"/>
+    </row>
+    <row r="465" spans="26:32">
+      <c r="Z465" s="15"/>
+      <c r="AF465" s="14"/>
+    </row>
+    <row r="466" spans="26:32">
+      <c r="Z466" s="15"/>
+      <c r="AF466" s="14"/>
+    </row>
+    <row r="467" spans="26:32">
+      <c r="Z467" s="15"/>
+      <c r="AF467" s="14"/>
+    </row>
+    <row r="468" spans="26:32">
+      <c r="Z468" s="15"/>
+      <c r="AF468" s="14"/>
+    </row>
+    <row r="469" spans="26:32">
+      <c r="Z469" s="15"/>
+      <c r="AF469" s="14"/>
+    </row>
+    <row r="470" spans="26:32">
+      <c r="Z470" s="15"/>
+      <c r="AF470" s="14"/>
+    </row>
+    <row r="471" spans="26:32">
+      <c r="Z471" s="15"/>
+      <c r="AF471" s="14"/>
+    </row>
+    <row r="472" spans="26:32">
+      <c r="Z472" s="15"/>
+      <c r="AF472" s="14"/>
+    </row>
+    <row r="473" spans="26:32">
+      <c r="Z473" s="15"/>
+      <c r="AF473" s="14"/>
+    </row>
+    <row r="474" spans="26:32">
+      <c r="Z474" s="15"/>
+      <c r="AF474" s="14"/>
+    </row>
+    <row r="475" spans="26:32">
+      <c r="Z475" s="15"/>
+      <c r="AF475" s="14"/>
+    </row>
+    <row r="476" spans="26:32">
+      <c r="Z476" s="15"/>
+      <c r="AF476" s="14"/>
+    </row>
+    <row r="477" spans="26:32">
+      <c r="Z477" s="15"/>
+      <c r="AF477" s="14"/>
+    </row>
+    <row r="478" spans="26:32">
+      <c r="Z478" s="15"/>
+      <c r="AF478" s="14"/>
+    </row>
+    <row r="479" spans="26:32">
+      <c r="Z479" s="15"/>
+      <c r="AF479" s="14"/>
+    </row>
+    <row r="480" spans="26:32">
+      <c r="Z480" s="15"/>
+      <c r="AF480" s="14"/>
+    </row>
+    <row r="481" spans="26:32">
+      <c r="Z481" s="15"/>
+      <c r="AF481" s="14"/>
+    </row>
+    <row r="482" spans="26:32">
+      <c r="Z482" s="15"/>
+      <c r="AF482" s="14"/>
+    </row>
+    <row r="483" spans="26:32">
+      <c r="Z483" s="15"/>
+      <c r="AF483" s="14"/>
+    </row>
+    <row r="484" spans="26:32">
+      <c r="Z484" s="15"/>
+      <c r="AF484" s="14"/>
+    </row>
+    <row r="485" spans="26:32">
+      <c r="Z485" s="15"/>
+      <c r="AF485" s="14"/>
+    </row>
+    <row r="486" spans="26:32">
+      <c r="Z486" s="15"/>
+      <c r="AF486" s="14"/>
+    </row>
+    <row r="487" spans="26:32">
+      <c r="Z487" s="15"/>
+      <c r="AF487" s="14"/>
+    </row>
+    <row r="488" spans="26:32">
+      <c r="Z488" s="15"/>
+      <c r="AF488" s="14"/>
+    </row>
+    <row r="489" spans="26:32">
+      <c r="Z489" s="15"/>
+      <c r="AF489" s="14"/>
+    </row>
+    <row r="490" spans="26:32">
+      <c r="Z490" s="15"/>
+      <c r="AF490" s="14"/>
+    </row>
+    <row r="491" spans="26:32">
+      <c r="Z491" s="15"/>
+      <c r="AF491" s="14"/>
+    </row>
+    <row r="492" spans="26:32">
+      <c r="Z492" s="15"/>
+      <c r="AF492" s="14"/>
+    </row>
+    <row r="493" spans="26:32">
+      <c r="Z493" s="15"/>
+      <c r="AF493" s="14"/>
+    </row>
+    <row r="494" spans="26:32">
+      <c r="Z494" s="15"/>
+      <c r="AF494" s="14"/>
+    </row>
+    <row r="495" spans="26:32">
+      <c r="Z495" s="15"/>
+      <c r="AF495" s="14"/>
+    </row>
+    <row r="496" spans="26:32">
+      <c r="Z496" s="15"/>
+      <c r="AF496" s="14"/>
+    </row>
+    <row r="497" spans="26:32">
+      <c r="Z497" s="15"/>
+      <c r="AF497" s="14"/>
+    </row>
+    <row r="498" spans="26:32">
+      <c r="Z498" s="15"/>
+      <c r="AF498" s="14"/>
+    </row>
+    <row r="499" spans="26:32">
+      <c r="Z499" s="15"/>
+      <c r="AF499" s="14"/>
+    </row>
+    <row r="500" spans="26:32">
+      <c r="Z500" s="15"/>
+      <c r="AF500" s="14"/>
+    </row>
+    <row r="501" spans="26:32">
+      <c r="Z501" s="15"/>
+      <c r="AF501" s="14"/>
+    </row>
+    <row r="502" spans="26:32">
+      <c r="Z502" s="15"/>
+      <c r="AF502" s="14"/>
+    </row>
+    <row r="503" spans="26:32">
+      <c r="Z503" s="15"/>
+      <c r="AF503" s="14"/>
+    </row>
+    <row r="504" spans="26:32">
+      <c r="Z504" s="15"/>
+      <c r="AF504" s="14"/>
+    </row>
+    <row r="505" spans="26:32">
+      <c r="Z505" s="15"/>
+      <c r="AF505" s="14"/>
+    </row>
+    <row r="506" spans="26:32">
+      <c r="Z506" s="15"/>
+      <c r="AF506" s="14"/>
+    </row>
+    <row r="507" spans="26:32">
+      <c r="Z507" s="15"/>
+      <c r="AF507" s="14"/>
+    </row>
+    <row r="508" spans="26:32">
+      <c r="Z508" s="15"/>
+      <c r="AF508" s="14"/>
+    </row>
+    <row r="509" spans="26:32">
+      <c r="Z509" s="15"/>
+      <c r="AF509" s="14"/>
+    </row>
+    <row r="510" spans="26:32">
+      <c r="Z510" s="15"/>
+      <c r="AF510" s="14"/>
+    </row>
+    <row r="511" spans="26:32">
+      <c r="Z511" s="15"/>
+      <c r="AF511" s="14"/>
+    </row>
+    <row r="512" spans="26:32">
+      <c r="Z512" s="15"/>
+      <c r="AF512" s="14"/>
+    </row>
+    <row r="513" spans="26:32">
+      <c r="Z513" s="15"/>
+      <c r="AF513" s="14"/>
+    </row>
+    <row r="514" spans="26:32">
+      <c r="Z514" s="15"/>
+      <c r="AF514" s="14"/>
+    </row>
+    <row r="515" spans="26:32">
+      <c r="Z515" s="15"/>
+      <c r="AF515" s="14"/>
+    </row>
+    <row r="516" spans="26:32">
+      <c r="Z516" s="15"/>
+      <c r="AF516" s="14"/>
+    </row>
+    <row r="517" spans="26:32">
+      <c r="Z517" s="15"/>
+      <c r="AF517" s="14"/>
+    </row>
+    <row r="518" spans="26:32">
+      <c r="Z518" s="15"/>
+      <c r="AF518" s="14"/>
+    </row>
+    <row r="519" spans="26:32">
+      <c r="Z519" s="15"/>
+      <c r="AF519" s="14"/>
+    </row>
+    <row r="520" spans="26:32">
+      <c r="Z520" s="15"/>
+      <c r="AF520" s="14"/>
+    </row>
+    <row r="521" spans="26:32">
+      <c r="Z521" s="15"/>
+      <c r="AF521" s="14"/>
+    </row>
+    <row r="522" spans="26:32">
+      <c r="Z522" s="15"/>
+      <c r="AF522" s="14"/>
+    </row>
+    <row r="523" spans="26:32">
+      <c r="Z523" s="15"/>
+      <c r="AF523" s="14"/>
+    </row>
+    <row r="524" spans="26:32">
+      <c r="Z524" s="15"/>
+      <c r="AF524" s="14"/>
+    </row>
+    <row r="525" spans="26:32">
+      <c r="Z525" s="15"/>
+      <c r="AF525" s="14"/>
+    </row>
+    <row r="526" spans="26:32">
+      <c r="Z526" s="15"/>
+      <c r="AF526" s="14"/>
+    </row>
+    <row r="527" spans="26:32">
+      <c r="Z527" s="15"/>
+      <c r="AF527" s="14"/>
+    </row>
+    <row r="528" spans="26:32">
+      <c r="Z528" s="15"/>
+      <c r="AF528" s="14"/>
+    </row>
+    <row r="529" spans="26:32">
+      <c r="Z529" s="15"/>
+      <c r="AF529" s="14"/>
+    </row>
+    <row r="530" spans="26:32">
+      <c r="Z530" s="15"/>
+      <c r="AF530" s="14"/>
+    </row>
+    <row r="531" spans="26:32">
+      <c r="Z531" s="15"/>
+      <c r="AF531" s="14"/>
+    </row>
+    <row r="532" spans="26:32">
+      <c r="Z532" s="15"/>
+      <c r="AF532" s="14"/>
+    </row>
+    <row r="533" spans="26:32">
+      <c r="Z533" s="15"/>
+      <c r="AF533" s="14"/>
+    </row>
+    <row r="534" spans="26:32">
+      <c r="Z534" s="15"/>
+      <c r="AF534" s="14"/>
+    </row>
+    <row r="535" spans="26:32">
+      <c r="Z535" s="15"/>
+      <c r="AF535" s="14"/>
+    </row>
+    <row r="536" spans="26:32">
+      <c r="Z536" s="15"/>
+      <c r="AF536" s="14"/>
+    </row>
+    <row r="537" spans="26:32">
+      <c r="Z537" s="15"/>
+      <c r="AF537" s="14"/>
+    </row>
+    <row r="538" spans="26:32">
+      <c r="Z538" s="15"/>
+      <c r="AF538" s="14"/>
+    </row>
+    <row r="539" spans="26:32">
+      <c r="Z539" s="15"/>
+      <c r="AF539" s="14"/>
+    </row>
+    <row r="540" spans="26:32">
+      <c r="Z540" s="15"/>
+      <c r="AF540" s="14"/>
+    </row>
+    <row r="541" spans="26:32">
+      <c r="Z541" s="15"/>
+      <c r="AF541" s="14"/>
+    </row>
+    <row r="542" spans="26:32">
+      <c r="Z542" s="15"/>
+      <c r="AF542" s="14"/>
+    </row>
+    <row r="543" spans="26:32">
+      <c r="Z543" s="15"/>
+      <c r="AF543" s="14"/>
+    </row>
+    <row r="544" spans="26:32">
+      <c r="Z544" s="15"/>
+      <c r="AF544" s="14"/>
+    </row>
+    <row r="545" spans="26:32">
+      <c r="Z545" s="15"/>
+      <c r="AF545" s="14"/>
+    </row>
+    <row r="546" spans="26:32">
+      <c r="Z546" s="15"/>
+      <c r="AF546" s="14"/>
+    </row>
+    <row r="547" spans="26:32">
+      <c r="Z547" s="15"/>
+      <c r="AF547" s="14"/>
+    </row>
+    <row r="548" spans="26:32">
+      <c r="Z548" s="15"/>
+      <c r="AF548" s="14"/>
+    </row>
+    <row r="549" spans="26:32">
+      <c r="Z549" s="15"/>
+      <c r="AF549" s="14"/>
+    </row>
+    <row r="550" spans="26:32">
+      <c r="Z550" s="15"/>
+      <c r="AF550" s="14"/>
+    </row>
+    <row r="551" spans="26:32">
+      <c r="Z551" s="15"/>
+      <c r="AF551" s="14"/>
+    </row>
+    <row r="552" spans="26:32">
+      <c r="Z552" s="15"/>
+      <c r="AF552" s="14"/>
+    </row>
+    <row r="553" spans="26:32">
+      <c r="Z553" s="15"/>
+      <c r="AF553" s="14"/>
+    </row>
+    <row r="554" spans="26:32">
+      <c r="Z554" s="15"/>
+      <c r="AF554" s="14"/>
+    </row>
+    <row r="555" spans="26:32">
+      <c r="Z555" s="15"/>
+      <c r="AF555" s="14"/>
+    </row>
+    <row r="556" spans="26:32">
+      <c r="Z556" s="15"/>
+      <c r="AF556" s="14"/>
+    </row>
+    <row r="557" spans="26:32">
+      <c r="Z557" s="15"/>
+      <c r="AF557" s="14"/>
+    </row>
+    <row r="558" spans="26:32">
+      <c r="Z558" s="15"/>
+      <c r="AF558" s="14"/>
+    </row>
+    <row r="559" spans="26:32">
+      <c r="Z559" s="15"/>
+      <c r="AF559" s="14"/>
+    </row>
+    <row r="560" spans="26:32">
+      <c r="Z560" s="15"/>
+      <c r="AF560" s="14"/>
+    </row>
+    <row r="561" spans="26:32">
+      <c r="Z561" s="15"/>
+      <c r="AF561" s="14"/>
+    </row>
+    <row r="562" spans="26:32">
+      <c r="Z562" s="15"/>
+      <c r="AF562" s="14"/>
+    </row>
+    <row r="563" spans="26:32">
+      <c r="Z563" s="15"/>
+      <c r="AF563" s="14"/>
+    </row>
+    <row r="564" spans="26:32">
+      <c r="Z564" s="15"/>
+      <c r="AF564" s="14"/>
+    </row>
+    <row r="565" spans="26:32">
+      <c r="Z565" s="15"/>
+      <c r="AF565" s="14"/>
+    </row>
+    <row r="566" spans="26:32">
+      <c r="Z566" s="15"/>
+      <c r="AF566" s="14"/>
+    </row>
+    <row r="567" spans="26:32">
+      <c r="Z567" s="15"/>
+      <c r="AF567" s="14"/>
+    </row>
+    <row r="568" spans="26:32">
+      <c r="Z568" s="15"/>
+      <c r="AF568" s="14"/>
+    </row>
+    <row r="569" spans="26:32">
+      <c r="Z569" s="15"/>
+      <c r="AF569" s="14"/>
+    </row>
+    <row r="570" spans="26:32">
+      <c r="Z570" s="15"/>
+      <c r="AF570" s="14"/>
+    </row>
+    <row r="571" spans="26:32">
+      <c r="Z571" s="15"/>
+      <c r="AF571" s="14"/>
+    </row>
+    <row r="572" spans="26:32">
+      <c r="Z572" s="15"/>
+      <c r="AF572" s="14"/>
+    </row>
+    <row r="573" spans="26:32">
+      <c r="Z573" s="15"/>
+      <c r="AF573" s="14"/>
+    </row>
+    <row r="574" spans="26:32">
+      <c r="Z574" s="15"/>
+      <c r="AF574" s="14"/>
+    </row>
+    <row r="575" spans="26:32">
+      <c r="Z575" s="15"/>
+      <c r="AF575" s="14"/>
+    </row>
+    <row r="576" spans="26:32">
+      <c r="Z576" s="15"/>
+      <c r="AF576" s="14"/>
+    </row>
+    <row r="577" spans="26:32">
+      <c r="Z577" s="15"/>
+      <c r="AF577" s="14"/>
+    </row>
+    <row r="578" spans="26:32">
+      <c r="Z578" s="15"/>
+      <c r="AF578" s="14"/>
+    </row>
+    <row r="579" spans="26:32">
+      <c r="Z579" s="15"/>
+      <c r="AF579" s="14"/>
+    </row>
+    <row r="580" spans="26:32">
+      <c r="Z580" s="15"/>
+      <c r="AF580" s="14"/>
+    </row>
+    <row r="581" spans="26:32">
+      <c r="Z581" s="15"/>
+      <c r="AF581" s="14"/>
+    </row>
+    <row r="582" spans="26:32">
+      <c r="Z582" s="15"/>
+      <c r="AF582" s="14"/>
+    </row>
+    <row r="583" spans="26:32">
+      <c r="Z583" s="15"/>
+      <c r="AF583" s="14"/>
+    </row>
+    <row r="584" spans="26:32">
+      <c r="Z584" s="15"/>
+      <c r="AF584" s="14"/>
+    </row>
+    <row r="585" spans="26:32">
+      <c r="Z585" s="15"/>
+      <c r="AF585" s="14"/>
+    </row>
+    <row r="586" spans="26:32">
+      <c r="Z586" s="15"/>
+      <c r="AF586" s="14"/>
+    </row>
+    <row r="587" spans="26:32">
+      <c r="Z587" s="15"/>
+      <c r="AF587" s="14"/>
+    </row>
+    <row r="588" spans="26:32">
+      <c r="Z588" s="15"/>
+      <c r="AF588" s="14"/>
+    </row>
+    <row r="589" spans="26:32">
+      <c r="Z589" s="15"/>
+      <c r="AF589" s="14"/>
+    </row>
+    <row r="590" spans="26:32">
+      <c r="Z590" s="15"/>
+      <c r="AF590" s="14"/>
+    </row>
+    <row r="591" spans="26:32">
+      <c r="Z591" s="15"/>
+      <c r="AF591" s="14"/>
+    </row>
+    <row r="592" spans="26:32">
+      <c r="Z592" s="15"/>
+      <c r="AF592" s="14"/>
+    </row>
+    <row r="593" spans="26:32">
+      <c r="Z593" s="15"/>
+      <c r="AF593" s="14"/>
+    </row>
+    <row r="594" spans="26:32">
+      <c r="Z594" s="15"/>
+      <c r="AF594" s="14"/>
+    </row>
+    <row r="595" spans="26:32">
+      <c r="Z595" s="15"/>
+      <c r="AF595" s="14"/>
+    </row>
+    <row r="596" spans="26:32">
+      <c r="Z596" s="15"/>
+      <c r="AF596" s="14"/>
+    </row>
+    <row r="597" spans="26:32">
+      <c r="Z597" s="15"/>
+      <c r="AF597" s="14"/>
+    </row>
+    <row r="598" spans="26:32">
+      <c r="Z598" s="15"/>
+      <c r="AF598" s="14"/>
+    </row>
+    <row r="599" spans="26:32">
+      <c r="Z599" s="15"/>
+      <c r="AF599" s="14"/>
+    </row>
+    <row r="600" spans="26:32">
+      <c r="Z600" s="15"/>
+      <c r="AF600" s="14"/>
+    </row>
+    <row r="601" spans="26:32">
+      <c r="Z601" s="15"/>
+      <c r="AF601" s="14"/>
+    </row>
+    <row r="602" spans="26:32">
+      <c r="Z602" s="15"/>
+      <c r="AF602" s="14"/>
+    </row>
+    <row r="603" spans="26:32">
+      <c r="Z603" s="15"/>
+      <c r="AF603" s="14"/>
+    </row>
+    <row r="604" spans="26:32">
+      <c r="Z604" s="15"/>
+      <c r="AF604" s="14"/>
+    </row>
+    <row r="605" spans="26:32">
+      <c r="Z605" s="15"/>
+      <c r="AF605" s="14"/>
+    </row>
+    <row r="606" spans="26:32">
+      <c r="Z606" s="15"/>
+      <c r="AF606" s="14"/>
+    </row>
+    <row r="607" spans="26:32">
+      <c r="Z607" s="15"/>
+      <c r="AF607" s="14"/>
+    </row>
+    <row r="608" spans="26:32">
+      <c r="Z608" s="15"/>
+      <c r="AF608" s="14"/>
+    </row>
+    <row r="609" spans="26:32">
+      <c r="Z609" s="15"/>
+      <c r="AF609" s="14"/>
+    </row>
+    <row r="610" spans="26:32">
+      <c r="Z610" s="15"/>
+      <c r="AF610" s="14"/>
+    </row>
+    <row r="611" spans="26:32">
+      <c r="Z611" s="15"/>
+      <c r="AF611" s="14"/>
+    </row>
+    <row r="612" spans="26:32">
+      <c r="Z612" s="15"/>
+      <c r="AF612" s="14"/>
+    </row>
+    <row r="613" spans="26:32">
+      <c r="Z613" s="15"/>
+      <c r="AF613" s="14"/>
+    </row>
+    <row r="614" spans="26:32">
+      <c r="Z614" s="15"/>
+      <c r="AF614" s="14"/>
+    </row>
+    <row r="615" spans="26:32">
+      <c r="Z615" s="15"/>
+      <c r="AF615" s="14"/>
+    </row>
+    <row r="616" spans="26:32">
+      <c r="Z616" s="15"/>
+      <c r="AF616" s="14"/>
+    </row>
+    <row r="617" spans="26:32">
+      <c r="Z617" s="15"/>
+      <c r="AF617" s="14"/>
+    </row>
+    <row r="618" spans="26:32">
+      <c r="Z618" s="15"/>
+      <c r="AF618" s="14"/>
+    </row>
+    <row r="619" spans="26:32">
+      <c r="Z619" s="15"/>
+      <c r="AF619" s="14"/>
+    </row>
+    <row r="620" spans="26:32">
+      <c r="Z620" s="15"/>
+      <c r="AF620" s="14"/>
+    </row>
+    <row r="621" spans="26:32">
+      <c r="Z621" s="15"/>
+      <c r="AF621" s="14"/>
+    </row>
+    <row r="622" spans="26:32">
+      <c r="Z622" s="15"/>
+      <c r="AF622" s="14"/>
+    </row>
+    <row r="623" spans="26:32">
+      <c r="Z623" s="15"/>
+      <c r="AF623" s="14"/>
+    </row>
+    <row r="624" spans="26:32">
+      <c r="Z624" s="15"/>
+      <c r="AF624" s="14"/>
+    </row>
+    <row r="625" spans="26:32">
+      <c r="Z625" s="15"/>
+      <c r="AF625" s="14"/>
+    </row>
+    <row r="626" spans="26:32">
+      <c r="Z626" s="15"/>
+      <c r="AF626" s="14"/>
+    </row>
+    <row r="627" spans="26:32">
+      <c r="Z627" s="15"/>
+      <c r="AF627" s="14"/>
+    </row>
+    <row r="628" spans="26:32">
+      <c r="Z628" s="15"/>
+      <c r="AF628" s="14"/>
+    </row>
+    <row r="629" spans="26:32">
+      <c r="Z629" s="15"/>
+      <c r="AF629" s="14"/>
+    </row>
+    <row r="630" spans="26:32">
+      <c r="Z630" s="15"/>
+      <c r="AF630" s="14"/>
+    </row>
+    <row r="631" spans="26:32">
+      <c r="Z631" s="15"/>
+      <c r="AF631" s="14"/>
+    </row>
+    <row r="632" spans="26:32">
+      <c r="Z632" s="15"/>
+      <c r="AF632" s="14"/>
+    </row>
+    <row r="633" spans="26:32">
+      <c r="Z633" s="15"/>
+      <c r="AF633" s="14"/>
+    </row>
+    <row r="634" spans="26:32">
+      <c r="Z634" s="15"/>
+      <c r="AF634" s="14"/>
+    </row>
+    <row r="635" spans="26:32">
+      <c r="Z635" s="15"/>
+      <c r="AF635" s="14"/>
+    </row>
+    <row r="636" spans="26:32">
+      <c r="Z636" s="15"/>
+      <c r="AF636" s="14"/>
+    </row>
+    <row r="637" spans="26:32">
+      <c r="Z637" s="15"/>
+      <c r="AF637" s="14"/>
+    </row>
+    <row r="638" spans="26:32">
+      <c r="Z638" s="15"/>
+      <c r="AF638" s="14"/>
+    </row>
+    <row r="639" spans="26:32">
+      <c r="Z639" s="15"/>
+      <c r="AF639" s="14"/>
+    </row>
+    <row r="640" spans="26:32">
+      <c r="Z640" s="15"/>
+      <c r="AF640" s="14"/>
+    </row>
+    <row r="641" spans="26:32">
+      <c r="Z641" s="15"/>
+      <c r="AF641" s="14"/>
+    </row>
+    <row r="642" spans="26:32">
+      <c r="Z642" s="15"/>
+      <c r="AF642" s="14"/>
+    </row>
+    <row r="643" spans="26:32">
+      <c r="Z643" s="15"/>
+      <c r="AF643" s="14"/>
+    </row>
+    <row r="644" spans="26:32">
+      <c r="Z644" s="15"/>
+      <c r="AF644" s="14"/>
+    </row>
+    <row r="645" spans="26:32">
+      <c r="Z645" s="15"/>
+      <c r="AF645" s="14"/>
+    </row>
+    <row r="646" spans="26:32">
+      <c r="Z646" s="15"/>
+      <c r="AF646" s="14"/>
+    </row>
+    <row r="647" spans="26:32">
+      <c r="Z647" s="15"/>
+      <c r="AF647" s="14"/>
+    </row>
+    <row r="648" spans="26:32">
+      <c r="Z648" s="15"/>
+      <c r="AF648" s="14"/>
+    </row>
+    <row r="649" spans="26:32">
+      <c r="Z649" s="15"/>
+      <c r="AF649" s="14"/>
+    </row>
+    <row r="650" spans="26:32">
+      <c r="Z650" s="15"/>
+      <c r="AF650" s="14"/>
+    </row>
+    <row r="651" spans="26:32">
+      <c r="Z651" s="15"/>
+      <c r="AF651" s="14"/>
+    </row>
+    <row r="652" spans="26:32">
+      <c r="Z652" s="15"/>
+      <c r="AF652" s="14"/>
+    </row>
+    <row r="653" spans="26:32">
+      <c r="Z653" s="15"/>
+      <c r="AF653" s="14"/>
+    </row>
+    <row r="654" spans="26:32">
+      <c r="Z654" s="15"/>
+      <c r="AF654" s="14"/>
+    </row>
+    <row r="655" spans="26:32">
+      <c r="Z655" s="15"/>
+      <c r="AF655" s="14"/>
+    </row>
+    <row r="656" spans="26:32">
+      <c r="Z656" s="15"/>
+      <c r="AF656" s="14"/>
+    </row>
+    <row r="657" spans="26:32">
+      <c r="Z657" s="15"/>
+      <c r="AF657" s="14"/>
+    </row>
+    <row r="658" spans="26:32">
+      <c r="Z658" s="15"/>
+      <c r="AF658" s="14"/>
+    </row>
+    <row r="659" spans="26:32">
+      <c r="Z659" s="15"/>
+      <c r="AF659" s="14"/>
+    </row>
+    <row r="660" spans="26:32">
+      <c r="Z660" s="15"/>
+      <c r="AF660" s="14"/>
+    </row>
+    <row r="661" spans="26:32">
+      <c r="Z661" s="15"/>
+      <c r="AF661" s="14"/>
+    </row>
+    <row r="662" spans="26:32">
+      <c r="Z662" s="15"/>
+      <c r="AF662" s="14"/>
+    </row>
+    <row r="663" spans="26:32">
+      <c r="Z663" s="15"/>
+      <c r="AF663" s="14"/>
+    </row>
+    <row r="664" spans="26:32">
+      <c r="Z664" s="15"/>
+      <c r="AF664" s="14"/>
+    </row>
+    <row r="665" spans="26:32">
+      <c r="Z665" s="15"/>
+      <c r="AF665" s="14"/>
+    </row>
+    <row r="666" spans="26:32">
+      <c r="Z666" s="15"/>
+      <c r="AF666" s="14"/>
+    </row>
+    <row r="667" spans="26:32">
+      <c r="Z667" s="15"/>
+      <c r="AF667" s="14"/>
+    </row>
+    <row r="668" spans="26:32">
+      <c r="Z668" s="15"/>
+      <c r="AF668" s="14"/>
+    </row>
+    <row r="669" spans="26:32">
+      <c r="Z669" s="15"/>
+      <c r="AF669" s="14"/>
+    </row>
+    <row r="670" spans="26:32">
+      <c r="Z670" s="15"/>
+      <c r="AF670" s="14"/>
+    </row>
+    <row r="671" spans="26:32">
+      <c r="Z671" s="15"/>
+      <c r="AF671" s="14"/>
+    </row>
+    <row r="672" spans="26:32">
+      <c r="Z672" s="15"/>
+      <c r="AF672" s="14"/>
+    </row>
+    <row r="673" spans="26:32">
+      <c r="Z673" s="15"/>
+      <c r="AF673" s="14"/>
+    </row>
+    <row r="674" spans="26:32">
+      <c r="Z674" s="15"/>
+      <c r="AF674" s="14"/>
+    </row>
+    <row r="675" spans="26:32">
+      <c r="Z675" s="15"/>
+      <c r="AF675" s="14"/>
+    </row>
+    <row r="676" spans="26:32">
+      <c r="Z676" s="15"/>
+      <c r="AF676" s="14"/>
+    </row>
+    <row r="677" spans="26:32">
+      <c r="Z677" s="15"/>
+      <c r="AF677" s="14"/>
+    </row>
+    <row r="678" spans="26:32">
+      <c r="Z678" s="15"/>
+      <c r="AF678" s="14"/>
+    </row>
+    <row r="679" spans="26:32">
+      <c r="Z679" s="15"/>
+      <c r="AF679" s="14"/>
+    </row>
+    <row r="680" spans="26:32">
+      <c r="Z680" s="15"/>
+      <c r="AF680" s="14"/>
+    </row>
+    <row r="681" spans="26:32">
+      <c r="Z681" s="15"/>
+      <c r="AF681" s="14"/>
+    </row>
+    <row r="682" spans="26:32">
+      <c r="Z682" s="15"/>
+      <c r="AF682" s="14"/>
+    </row>
+    <row r="683" spans="26:32">
+      <c r="Z683" s="15"/>
+      <c r="AF683" s="14"/>
+    </row>
+    <row r="684" spans="26:32">
+      <c r="Z684" s="15"/>
+      <c r="AF684" s="14"/>
+    </row>
+    <row r="685" spans="26:32">
+      <c r="Z685" s="15"/>
+      <c r="AF685" s="14"/>
+    </row>
+    <row r="686" spans="26:32">
+      <c r="Z686" s="15"/>
+      <c r="AF686" s="14"/>
+    </row>
+    <row r="687" spans="26:32">
+      <c r="Z687" s="15"/>
+      <c r="AF687" s="14"/>
+    </row>
+    <row r="688" spans="26:32">
+      <c r="Z688" s="15"/>
+      <c r="AF688" s="14"/>
+    </row>
+    <row r="689" spans="26:32">
+      <c r="Z689" s="15"/>
+      <c r="AF689" s="14"/>
+    </row>
+    <row r="690" spans="26:32">
+      <c r="Z690" s="15"/>
+      <c r="AF690" s="14"/>
+    </row>
+    <row r="691" spans="26:32">
+      <c r="Z691" s="15"/>
+      <c r="AF691" s="14"/>
+    </row>
+    <row r="692" spans="26:32">
+      <c r="Z692" s="15"/>
+      <c r="AF692" s="14"/>
+    </row>
+    <row r="693" spans="26:32">
+      <c r="Z693" s="15"/>
+      <c r="AF693" s="14"/>
+    </row>
+    <row r="694" spans="26:32">
+      <c r="Z694" s="15"/>
+      <c r="AF694" s="14"/>
+    </row>
+    <row r="695" spans="26:32">
+      <c r="Z695" s="15"/>
+      <c r="AF695" s="14"/>
+    </row>
+    <row r="696" spans="26:32">
+      <c r="Z696" s="15"/>
+      <c r="AF696" s="14"/>
+    </row>
+    <row r="697" spans="26:32">
+      <c r="Z697" s="15"/>
+      <c r="AF697" s="14"/>
+    </row>
+    <row r="698" spans="26:32">
+      <c r="Z698" s="15"/>
+      <c r="AF698" s="14"/>
+    </row>
+    <row r="699" spans="26:32">
+      <c r="Z699" s="15"/>
+      <c r="AF699" s="14"/>
+    </row>
+    <row r="700" spans="26:32">
+      <c r="Z700" s="15"/>
+      <c r="AF700" s="14"/>
+    </row>
+    <row r="701" spans="26:32">
+      <c r="Z701" s="15"/>
+      <c r="AF701" s="14"/>
+    </row>
+    <row r="702" spans="26:32">
+      <c r="Z702" s="15"/>
+      <c r="AF702" s="14"/>
+    </row>
+    <row r="703" spans="26:32">
+      <c r="Z703" s="15"/>
+      <c r="AF703" s="14"/>
+    </row>
+    <row r="704" spans="26:32">
+      <c r="Z704" s="15"/>
+      <c r="AF704" s="14"/>
+    </row>
+    <row r="705" spans="26:32">
+      <c r="Z705" s="15"/>
+      <c r="AF705" s="14"/>
+    </row>
+    <row r="706" spans="26:32">
+      <c r="Z706" s="15"/>
+      <c r="AF706" s="14"/>
+    </row>
+    <row r="707" spans="26:32">
+      <c r="Z707" s="15"/>
+      <c r="AF707" s="14"/>
+    </row>
+    <row r="708" spans="26:32">
+      <c r="Z708" s="15"/>
+      <c r="AF708" s="14"/>
+    </row>
+    <row r="709" spans="26:32">
+      <c r="Z709" s="15"/>
+      <c r="AF709" s="14"/>
+    </row>
+    <row r="710" spans="26:32">
+      <c r="Z710" s="15"/>
+      <c r="AF710" s="14"/>
+    </row>
+    <row r="711" spans="26:32">
+      <c r="Z711" s="15"/>
+      <c r="AF711" s="14"/>
+    </row>
+    <row r="712" spans="26:32">
+      <c r="Z712" s="15"/>
+      <c r="AF712" s="14"/>
+    </row>
+    <row r="713" spans="26:32">
+      <c r="Z713" s="15"/>
+      <c r="AF713" s="14"/>
+    </row>
+    <row r="714" spans="26:32">
+      <c r="Z714" s="15"/>
+      <c r="AF714" s="14"/>
+    </row>
+    <row r="715" spans="26:32">
+      <c r="Z715" s="15"/>
+      <c r="AF715" s="14"/>
+    </row>
+    <row r="716" spans="26:32">
+      <c r="Z716" s="15"/>
+      <c r="AF716" s="14"/>
+    </row>
+    <row r="717" spans="26:32">
+      <c r="Z717" s="15"/>
+      <c r="AF717" s="14"/>
+    </row>
+    <row r="718" spans="26:32">
+      <c r="Z718" s="15"/>
+      <c r="AF718" s="14"/>
+    </row>
+    <row r="719" spans="26:32">
+      <c r="Z719" s="15"/>
+      <c r="AF719" s="14"/>
+    </row>
+    <row r="720" spans="26:32">
+      <c r="Z720" s="15"/>
+      <c r="AF720" s="14"/>
+    </row>
+    <row r="721" spans="26:32">
+      <c r="Z721" s="15"/>
+      <c r="AF721" s="14"/>
+    </row>
+    <row r="722" spans="26:32">
+      <c r="Z722" s="15"/>
+      <c r="AF722" s="14"/>
+    </row>
+    <row r="723" spans="26:32">
+      <c r="Z723" s="15"/>
+      <c r="AF723" s="14"/>
+    </row>
+    <row r="724" spans="26:32">
+      <c r="Z724" s="15"/>
+      <c r="AF724" s="14"/>
+    </row>
+    <row r="725" spans="26:32">
+      <c r="Z725" s="15"/>
+      <c r="AF725" s="14"/>
+    </row>
+    <row r="726" spans="26:32">
+      <c r="Z726" s="15"/>
+      <c r="AF726" s="14"/>
+    </row>
+    <row r="727" spans="26:32">
+      <c r="Z727" s="15"/>
+      <c r="AF727" s="14"/>
+    </row>
+    <row r="728" spans="26:32">
+      <c r="Z728" s="15"/>
+      <c r="AF728" s="14"/>
+    </row>
+    <row r="729" spans="26:32">
+      <c r="Z729" s="15"/>
+      <c r="AF729" s="14"/>
+    </row>
+    <row r="730" spans="26:32">
+      <c r="Z730" s="15"/>
+      <c r="AF730" s="14"/>
+    </row>
+    <row r="731" spans="26:32">
+      <c r="Z731" s="15"/>
+      <c r="AF731" s="14"/>
+    </row>
+    <row r="732" spans="26:32">
+      <c r="Z732" s="15"/>
+      <c r="AF732" s="14"/>
+    </row>
+    <row r="733" spans="26:32">
+      <c r="Z733" s="15"/>
+      <c r="AF733" s="14"/>
+    </row>
+    <row r="734" spans="26:32">
+      <c r="Z734" s="15"/>
+      <c r="AF734" s="14"/>
+    </row>
+    <row r="735" spans="26:32">
+      <c r="Z735" s="15"/>
+      <c r="AF735" s="14"/>
+    </row>
+    <row r="736" spans="26:32">
+      <c r="Z736" s="15"/>
+      <c r="AF736" s="14"/>
+    </row>
+    <row r="737" spans="26:32">
+      <c r="Z737" s="15"/>
+      <c r="AF737" s="14"/>
+    </row>
+    <row r="738" spans="26:32">
+      <c r="Z738" s="15"/>
+      <c r="AF738" s="14"/>
+    </row>
+    <row r="739" spans="26:32">
+      <c r="Z739" s="15"/>
+      <c r="AF739" s="14"/>
+    </row>
+    <row r="740" spans="26:32">
+      <c r="Z740" s="15"/>
+      <c r="AF740" s="14"/>
+    </row>
+    <row r="741" spans="26:32">
+      <c r="Z741" s="15"/>
+      <c r="AF741" s="14"/>
+    </row>
+    <row r="742" spans="26:32">
+      <c r="AF742" s="14"/>
+    </row>
+    <row r="743" spans="26:32">
+      <c r="AF743" s="14"/>
+    </row>
+    <row r="744" spans="26:32">
+      <c r="AF744" s="14"/>
+    </row>
+    <row r="745" spans="26:32">
+      <c r="AF745" s="14"/>
+    </row>
+    <row r="746" spans="26:32">
+      <c r="AF746" s="14"/>
+    </row>
+    <row r="747" spans="26:32">
+      <c r="AF747" s="14"/>
+    </row>
+    <row r="748" spans="26:32">
+      <c r="AF748" s="14"/>
+    </row>
+    <row r="749" spans="26:32">
+      <c r="AF749" s="14"/>
+    </row>
+    <row r="750" spans="26:32">
+      <c r="AF750" s="14"/>
+    </row>
+    <row r="751" spans="26:32">
+      <c r="AF751" s="14"/>
+    </row>
+    <row r="752" spans="26:32">
+      <c r="AF752" s="14"/>
+    </row>
+    <row r="753" spans="32:32">
+      <c r="AF753" s="14"/>
+    </row>
+    <row r="754" spans="32:32">
+      <c r="AF754" s="14"/>
+    </row>
+    <row r="755" spans="32:32">
+      <c r="AF755" s="14"/>
+    </row>
+    <row r="756" spans="32:32">
+      <c r="AF756" s="14"/>
+    </row>
+    <row r="757" spans="32:32">
+      <c r="AF757" s="14"/>
+    </row>
+    <row r="758" spans="32:32">
+      <c r="AF758" s="14"/>
+    </row>
+    <row r="759" spans="32:32">
+      <c r="AF759" s="14"/>
+    </row>
+    <row r="760" spans="32:32">
+      <c r="AF760" s="14"/>
+    </row>
+    <row r="761" spans="32:32">
+      <c r="AF761" s="14"/>
+    </row>
+    <row r="762" spans="32:32">
+      <c r="AF762" s="14"/>
+    </row>
+    <row r="763" spans="32:32">
+      <c r="AF763" s="14"/>
+    </row>
+    <row r="764" spans="32:32">
+      <c r="AF764" s="14"/>
+    </row>
+    <row r="765" spans="32:32">
+      <c r="AF765" s="14"/>
+    </row>
+    <row r="766" spans="32:32">
+      <c r="AF766" s="14"/>
+    </row>
+    <row r="767" spans="32:32">
+      <c r="AF767" s="14"/>
+    </row>
+    <row r="768" spans="32:32">
+      <c r="AF768" s="14"/>
+    </row>
+    <row r="769" spans="32:32">
+      <c r="AF769" s="14"/>
+    </row>
+    <row r="770" spans="32:32">
+      <c r="AF770" s="14"/>
+    </row>
+    <row r="771" spans="32:32">
+      <c r="AF771" s="14"/>
+    </row>
+    <row r="772" spans="32:32">
+      <c r="AF772" s="14"/>
+    </row>
+    <row r="773" spans="32:32">
+      <c r="AF773" s="14"/>
+    </row>
+    <row r="774" spans="32:32">
+      <c r="AF774" s="14"/>
+    </row>
+    <row r="775" spans="32:32">
+      <c r="AF775" s="14"/>
+    </row>
+    <row r="776" spans="32:32">
+      <c r="AF776" s="14"/>
+    </row>
+    <row r="777" spans="32:32">
+      <c r="AF777" s="14"/>
+    </row>
+    <row r="778" spans="32:32">
+      <c r="AF778" s="14"/>
+    </row>
+    <row r="779" spans="32:32">
+      <c r="AF779" s="14"/>
+    </row>
+    <row r="780" spans="32:32">
+      <c r="AF780" s="14"/>
+    </row>
+    <row r="781" spans="32:32">
+      <c r="AF781" s="14"/>
+    </row>
+    <row r="782" spans="32:32">
+      <c r="AF782" s="14"/>
+    </row>
+    <row r="783" spans="32:32">
+      <c r="AF783" s="14"/>
+    </row>
+    <row r="784" spans="32:32">
+      <c r="AF784" s="14"/>
+    </row>
+    <row r="785" spans="32:32">
+      <c r="AF785" s="14"/>
+    </row>
+    <row r="786" spans="32:32">
+      <c r="AF786" s="14"/>
+    </row>
+    <row r="787" spans="32:32">
+      <c r="AF787" s="14"/>
+    </row>
+    <row r="788" spans="32:32">
+      <c r="AF788" s="14"/>
+    </row>
+    <row r="789" spans="32:32">
+      <c r="AF789" s="14"/>
+    </row>
+    <row r="790" spans="32:32">
+      <c r="AF790" s="14"/>
+    </row>
+    <row r="791" spans="32:32">
+      <c r="AF791" s="14"/>
+    </row>
+    <row r="792" spans="32:32">
+      <c r="AF792" s="14"/>
+    </row>
+    <row r="793" spans="32:32">
+      <c r="AF793" s="14"/>
+    </row>
+    <row r="794" spans="32:32">
+      <c r="AF794" s="14"/>
+    </row>
+    <row r="795" spans="32:32">
+      <c r="AF795" s="14"/>
+    </row>
+    <row r="796" spans="32:32">
+      <c r="AF796" s="14"/>
+    </row>
+    <row r="797" spans="32:32">
+      <c r="AF797" s="14"/>
+    </row>
+    <row r="798" spans="32:32">
+      <c r="AF798" s="14"/>
+    </row>
+    <row r="799" spans="32:32">
+      <c r="AF799" s="14"/>
+    </row>
+    <row r="800" spans="32:32">
+      <c r="AF800" s="14"/>
+    </row>
+    <row r="801" spans="32:32">
+      <c r="AF801" s="14"/>
+    </row>
+    <row r="802" spans="32:32">
+      <c r="AF802" s="14"/>
+    </row>
+    <row r="803" spans="32:32">
+      <c r="AF803" s="14"/>
+    </row>
+    <row r="804" spans="32:32">
+      <c r="AF804" s="14"/>
+    </row>
+    <row r="805" spans="32:32">
+      <c r="AF805" s="14"/>
+    </row>
+    <row r="806" spans="32:32">
+      <c r="AF806" s="14"/>
+    </row>
+    <row r="807" spans="32:32">
+      <c r="AF807" s="14"/>
+    </row>
+    <row r="808" spans="32:32">
+      <c r="AF808" s="14"/>
+    </row>
+    <row r="809" spans="32:32">
+      <c r="AF809" s="14"/>
+    </row>
+    <row r="810" spans="32:32">
+      <c r="AF810" s="14"/>
+    </row>
+    <row r="811" spans="32:32">
+      <c r="AF811" s="14"/>
+    </row>
+    <row r="812" spans="32:32">
+      <c r="AF812" s="14"/>
+    </row>
+    <row r="813" spans="32:32">
+      <c r="AF813" s="14"/>
+    </row>
+    <row r="814" spans="32:32">
+      <c r="AF814" s="14"/>
+    </row>
+    <row r="815" spans="32:32">
+      <c r="AF815" s="14"/>
+    </row>
+    <row r="816" spans="32:32">
+      <c r="AF816" s="14"/>
+    </row>
+    <row r="817" spans="32:32">
+      <c r="AF817" s="14"/>
+    </row>
+    <row r="818" spans="32:32">
+      <c r="AF818" s="14"/>
+    </row>
+    <row r="819" spans="32:32">
+      <c r="AF819" s="14"/>
+    </row>
+    <row r="820" spans="32:32">
+      <c r="AF820" s="14"/>
+    </row>
+    <row r="821" spans="32:32">
+      <c r="AF821" s="14"/>
+    </row>
+    <row r="822" spans="32:32">
+      <c r="AF822" s="14"/>
+    </row>
+    <row r="823" spans="32:32">
+      <c r="AF823" s="14"/>
+    </row>
+    <row r="824" spans="32:32">
+      <c r="AF824" s="14"/>
+    </row>
+    <row r="825" spans="32:32">
+      <c r="AF825" s="14"/>
+    </row>
+    <row r="826" spans="32:32">
+      <c r="AF826" s="14"/>
+    </row>
+    <row r="827" spans="32:32">
+      <c r="AF827" s="14"/>
+    </row>
+    <row r="828" spans="32:32">
+      <c r="AF828" s="14"/>
+    </row>
+    <row r="829" spans="32:32">
+      <c r="AF829" s="14"/>
+    </row>
+    <row r="830" spans="32:32">
+      <c r="AF830" s="14"/>
+    </row>
+    <row r="831" spans="32:32">
+      <c r="AF831" s="14"/>
+    </row>
+    <row r="832" spans="32:32">
+      <c r="AF832" s="14"/>
+    </row>
+    <row r="833" spans="32:32">
+      <c r="AF833" s="14"/>
+    </row>
+    <row r="834" spans="32:32">
+      <c r="AF834" s="14"/>
+    </row>
+    <row r="835" spans="32:32">
+      <c r="AF835" s="14"/>
+    </row>
+    <row r="836" spans="32:32">
+      <c r="AF836" s="14"/>
+    </row>
+    <row r="837" spans="32:32">
+      <c r="AF837" s="14"/>
+    </row>
+    <row r="838" spans="32:32">
+      <c r="AF838" s="14"/>
+    </row>
+    <row r="839" spans="32:32">
+      <c r="AF839" s="14"/>
+    </row>
+    <row r="840" spans="32:32">
+      <c r="AF840" s="14"/>
+    </row>
+    <row r="841" spans="32:32">
+      <c r="AF841" s="14"/>
+    </row>
+    <row r="842" spans="32:32">
+      <c r="AF842" s="14"/>
+    </row>
+    <row r="843" spans="32:32">
+      <c r="AF843" s="14"/>
+    </row>
+    <row r="844" spans="32:32">
+      <c r="AF844" s="14"/>
+    </row>
+    <row r="845" spans="32:32">
+      <c r="AF845" s="14"/>
+    </row>
+    <row r="846" spans="32:32">
+      <c r="AF846" s="14"/>
+    </row>
+    <row r="847" spans="32:32">
+      <c r="AF847" s="14"/>
+    </row>
+    <row r="848" spans="32:32">
+      <c r="AF848" s="14"/>
+    </row>
+    <row r="849" spans="32:32">
+      <c r="AF849" s="14"/>
+    </row>
+    <row r="850" spans="32:32">
+      <c r="AF850" s="14"/>
+    </row>
+    <row r="851" spans="32:32">
+      <c r="AF851" s="14"/>
+    </row>
+    <row r="852" spans="32:32">
+      <c r="AF852" s="14"/>
+    </row>
+    <row r="853" spans="32:32">
+      <c r="AF853" s="14"/>
+    </row>
+    <row r="854" spans="32:32">
+      <c r="AF854" s="14"/>
+    </row>
+    <row r="855" spans="32:32">
+      <c r="AF855" s="14"/>
+    </row>
+    <row r="856" spans="32:32">
+      <c r="AF856" s="14"/>
+    </row>
+    <row r="857" spans="32:32">
+      <c r="AF857" s="14"/>
+    </row>
+    <row r="858" spans="32:32">
+      <c r="AF858" s="14"/>
+    </row>
+    <row r="859" spans="32:32">
+      <c r="AF859" s="14"/>
+    </row>
+    <row r="860" spans="32:32">
+      <c r="AF860" s="14"/>
+    </row>
+    <row r="861" spans="32:32">
+      <c r="AF861" s="14"/>
+    </row>
+    <row r="862" spans="32:32">
+      <c r="AF862" s="14"/>
+    </row>
+    <row r="863" spans="32:32">
+      <c r="AF863" s="14"/>
+    </row>
+    <row r="864" spans="32:32">
+      <c r="AF864" s="14"/>
+    </row>
+    <row r="865" spans="32:32">
+      <c r="AF865" s="14"/>
+    </row>
+    <row r="866" spans="32:32">
+      <c r="AF866" s="14"/>
+    </row>
+    <row r="867" spans="32:32">
+      <c r="AF867" s="14"/>
+    </row>
+    <row r="868" spans="32:32">
+      <c r="AF868" s="14"/>
+    </row>
+    <row r="869" spans="32:32">
+      <c r="AF869" s="14"/>
+    </row>
+    <row r="870" spans="32:32">
+      <c r="AF870" s="14"/>
+    </row>
+    <row r="871" spans="32:32">
+      <c r="AF871" s="14"/>
+    </row>
+    <row r="872" spans="32:32">
+      <c r="AF872" s="14"/>
+    </row>
+    <row r="873" spans="32:32">
+      <c r="AF873" s="14"/>
+    </row>
+    <row r="874" spans="32:32">
+      <c r="AF874" s="14"/>
+    </row>
+    <row r="875" spans="32:32">
+      <c r="AF875" s="14"/>
+    </row>
+    <row r="876" spans="32:32">
+      <c r="AF876" s="14"/>
+    </row>
+    <row r="877" spans="32:32">
+      <c r="AF877" s="14"/>
+    </row>
+    <row r="878" spans="32:32">
+      <c r="AF878" s="14"/>
+    </row>
+    <row r="879" spans="32:32">
+      <c r="AF879" s="14"/>
+    </row>
+    <row r="880" spans="32:32">
+      <c r="AF880" s="14"/>
+    </row>
+    <row r="881" spans="32:32">
+      <c r="AF881" s="14"/>
+    </row>
+    <row r="882" spans="32:32">
+      <c r="AF882" s="14"/>
+    </row>
+    <row r="883" spans="32:32">
+      <c r="AF883" s="14"/>
+    </row>
+    <row r="884" spans="32:32">
+      <c r="AF884" s="14"/>
+    </row>
+    <row r="885" spans="32:32">
+      <c r="AF885" s="14"/>
+    </row>
+    <row r="886" spans="32:32">
+      <c r="AF886" s="14"/>
+    </row>
+    <row r="887" spans="32:32">
+      <c r="AF887" s="14"/>
+    </row>
+    <row r="888" spans="32:32">
+      <c r="AF888" s="14"/>
+    </row>
+    <row r="889" spans="32:32">
+      <c r="AF889" s="14"/>
+    </row>
+    <row r="890" spans="32:32">
+      <c r="AF890" s="14"/>
+    </row>
+    <row r="891" spans="32:32">
+      <c r="AF891" s="14"/>
+    </row>
+    <row r="892" spans="32:32">
+      <c r="AF892" s="14"/>
+    </row>
+    <row r="893" spans="32:32">
+      <c r="AF893" s="14"/>
+    </row>
+    <row r="894" spans="32:32">
+      <c r="AF894" s="14"/>
+    </row>
+    <row r="895" spans="32:32">
+      <c r="AF895" s="14"/>
+    </row>
+    <row r="896" spans="32:32">
+      <c r="AF896" s="14"/>
+    </row>
+    <row r="897" spans="32:32">
+      <c r="AF897" s="14"/>
+    </row>
+    <row r="898" spans="32:32">
+      <c r="AF898" s="14"/>
+    </row>
+    <row r="899" spans="32:32">
+      <c r="AF899" s="14"/>
+    </row>
+    <row r="900" spans="32:32">
+      <c r="AF900" s="14"/>
+    </row>
+    <row r="901" spans="32:32">
+      <c r="AF901" s="14"/>
+    </row>
+    <row r="902" spans="32:32">
+      <c r="AF902" s="14"/>
+    </row>
+    <row r="903" spans="32:32">
+      <c r="AF903" s="14"/>
+    </row>
+    <row r="904" spans="32:32">
+      <c r="AF904" s="14"/>
+    </row>
+    <row r="905" spans="32:32">
+      <c r="AF905" s="14"/>
+    </row>
+    <row r="906" spans="32:32">
+      <c r="AF906" s="14"/>
+    </row>
+    <row r="907" spans="32:32">
+      <c r="AF907" s="14"/>
+    </row>
+    <row r="908" spans="32:32">
+      <c r="AF908" s="14"/>
+    </row>
+    <row r="909" spans="32:32">
+      <c r="AF909" s="14"/>
+    </row>
+    <row r="910" spans="32:32">
+      <c r="AF910" s="14"/>
+    </row>
+    <row r="911" spans="32:32">
+      <c r="AF911" s="14"/>
+    </row>
+    <row r="912" spans="32:32">
+      <c r="AF912" s="14"/>
+    </row>
+    <row r="913" spans="32:32">
+      <c r="AF913" s="14"/>
+    </row>
+    <row r="914" spans="32:32">
+      <c r="AF914" s="14"/>
+    </row>
+    <row r="915" spans="32:32">
+      <c r="AF915" s="14"/>
+    </row>
+    <row r="916" spans="32:32">
+      <c r="AF916" s="14"/>
+    </row>
+    <row r="917" spans="32:32">
+      <c r="AF917" s="14"/>
+    </row>
+    <row r="918" spans="32:32">
+      <c r="AF918" s="14"/>
+    </row>
+    <row r="919" spans="32:32">
+      <c r="AF919" s="14"/>
+    </row>
+    <row r="920" spans="32:32">
+      <c r="AF920" s="14"/>
+    </row>
+    <row r="921" spans="32:32">
+      <c r="AF921" s="14"/>
+    </row>
+    <row r="922" spans="32:32">
+      <c r="AF922" s="14"/>
+    </row>
+    <row r="923" spans="32:32">
+      <c r="AF923" s="14"/>
+    </row>
+    <row r="924" spans="32:32">
+      <c r="AF924" s="14"/>
+    </row>
+    <row r="925" spans="32:32">
+      <c r="AF925" s="14"/>
+    </row>
+    <row r="926" spans="32:32">
+      <c r="AF926" s="14"/>
+    </row>
+    <row r="927" spans="32:32">
+      <c r="AF927" s="14"/>
+    </row>
+    <row r="928" spans="32:32">
+      <c r="AF928" s="14"/>
+    </row>
+    <row r="929" spans="32:32">
+      <c r="AF929" s="14"/>
+    </row>
+    <row r="930" spans="32:32">
+      <c r="AF930" s="14"/>
+    </row>
+    <row r="931" spans="32:32">
+      <c r="AF931" s="14"/>
+    </row>
+    <row r="932" spans="32:32">
+      <c r="AF932" s="14"/>
+    </row>
+    <row r="933" spans="32:32">
+      <c r="AF933" s="14"/>
+    </row>
+    <row r="934" spans="32:32">
+      <c r="AF934" s="14"/>
+    </row>
+    <row r="935" spans="32:32">
+      <c r="AF935" s="14"/>
+    </row>
+    <row r="936" spans="32:32">
+      <c r="AF936" s="14"/>
+    </row>
+    <row r="937" spans="32:32">
+      <c r="AF937" s="14"/>
+    </row>
+    <row r="938" spans="32:32">
+      <c r="AF938" s="14"/>
+    </row>
+    <row r="939" spans="32:32">
+      <c r="AF939" s="14"/>
+    </row>
+    <row r="940" spans="32:32">
+      <c r="AF940" s="14"/>
+    </row>
+    <row r="941" spans="32:32">
+      <c r="AF941" s="14"/>
+    </row>
+    <row r="942" spans="32:32">
+      <c r="AF942" s="14"/>
+    </row>
+    <row r="943" spans="32:32">
+      <c r="AF943" s="14"/>
+    </row>
+    <row r="944" spans="32:32">
+      <c r="AF944" s="14"/>
+    </row>
+    <row r="945" spans="32:32">
+      <c r="AF945" s="14"/>
+    </row>
+    <row r="946" spans="32:32">
+      <c r="AF946" s="14"/>
+    </row>
+    <row r="947" spans="32:32">
+      <c r="AF947" s="14"/>
+    </row>
+    <row r="948" spans="32:32">
+      <c r="AF948" s="14"/>
+    </row>
+    <row r="949" spans="32:32">
+      <c r="AF949" s="14"/>
+    </row>
+    <row r="950" spans="32:32">
+      <c r="AF950" s="14"/>
+    </row>
+    <row r="951" spans="32:32">
+      <c r="AF951" s="14"/>
+    </row>
+    <row r="952" spans="32:32">
+      <c r="AF952" s="14"/>
+    </row>
+    <row r="953" spans="32:32">
+      <c r="AF953" s="14"/>
+    </row>
+    <row r="954" spans="32:32">
+      <c r="AF954" s="14"/>
+    </row>
+    <row r="955" spans="32:32">
+      <c r="AF955" s="14"/>
+    </row>
+    <row r="956" spans="32:32">
+      <c r="AF956" s="14"/>
+    </row>
+    <row r="957" spans="32:32">
+      <c r="AF957" s="14"/>
+    </row>
+    <row r="958" spans="32:32">
+      <c r="AF958" s="14"/>
+    </row>
+    <row r="959" spans="32:32">
+      <c r="AF959" s="14"/>
+    </row>
+    <row r="960" spans="32:32">
+      <c r="AF960" s="14"/>
+    </row>
+    <row r="961" spans="32:32">
+      <c r="AF961" s="14"/>
+    </row>
+    <row r="962" spans="32:32">
+      <c r="AF962" s="14"/>
+    </row>
+    <row r="963" spans="32:32">
+      <c r="AF963" s="14"/>
+    </row>
+    <row r="964" spans="32:32">
+      <c r="AF964" s="14"/>
+    </row>
+    <row r="965" spans="32:32">
+      <c r="AF965" s="14"/>
+    </row>
+    <row r="966" spans="32:32">
+      <c r="AF966" s="14"/>
+    </row>
+    <row r="967" spans="32:32">
+      <c r="AF967" s="14"/>
+    </row>
+    <row r="968" spans="32:32">
+      <c r="AF968" s="14"/>
+    </row>
+    <row r="969" spans="32:32">
+      <c r="AF969" s="14"/>
+    </row>
+    <row r="970" spans="32:32">
+      <c r="AF970" s="14"/>
+    </row>
+    <row r="971" spans="32:32">
+      <c r="AF971" s="14"/>
+    </row>
+    <row r="972" spans="32:32">
+      <c r="AF972" s="14"/>
+    </row>
+    <row r="973" spans="32:32">
+      <c r="AF973" s="14"/>
+    </row>
+    <row r="974" spans="32:32">
+      <c r="AF974" s="14"/>
+    </row>
+    <row r="975" spans="32:32">
+      <c r="AF975" s="14"/>
+    </row>
+    <row r="976" spans="32:32">
+      <c r="AF976" s="14"/>
+    </row>
+    <row r="977" spans="32:32">
+      <c r="AF977" s="14"/>
+    </row>
+    <row r="978" spans="32:32">
+      <c r="AF978" s="14"/>
+    </row>
+    <row r="979" spans="32:32">
+      <c r="AF979" s="14"/>
+    </row>
+    <row r="980" spans="32:32">
+      <c r="AF980" s="14"/>
+    </row>
+    <row r="981" spans="32:32">
+      <c r="AF981" s="14"/>
+    </row>
+    <row r="982" spans="32:32">
+      <c r="AF982" s="14"/>
+    </row>
+    <row r="983" spans="32:32">
+      <c r="AF983" s="14"/>
+    </row>
+    <row r="984" spans="32:32">
+      <c r="AF984" s="14"/>
+    </row>
+    <row r="985" spans="32:32">
+      <c r="AF985" s="14"/>
+    </row>
+    <row r="986" spans="32:32">
+      <c r="AF986" s="14"/>
+    </row>
+    <row r="987" spans="32:32">
+      <c r="AF987" s="14"/>
+    </row>
+    <row r="988" spans="32:32">
+      <c r="AF988" s="14"/>
+    </row>
+    <row r="989" spans="32:32">
+      <c r="AF989" s="14"/>
+    </row>
+    <row r="990" spans="32:32">
+      <c r="AF990" s="14"/>
+    </row>
+    <row r="991" spans="32:32">
+      <c r="AF991" s="14"/>
+    </row>
+    <row r="992" spans="32:32">
+      <c r="AF992" s="14"/>
+    </row>
+    <row r="993" spans="32:32">
+      <c r="AF993" s="14"/>
+    </row>
+    <row r="994" spans="32:32">
+      <c r="AF994" s="14"/>
+    </row>
+    <row r="995" spans="32:32">
+      <c r="AF995" s="14"/>
+    </row>
+    <row r="996" spans="32:32">
+      <c r="AF996" s="14"/>
+    </row>
+    <row r="997" spans="32:32">
+      <c r="AF997" s="14"/>
+    </row>
+    <row r="998" spans="32:32">
+      <c r="AF998" s="14"/>
+    </row>
+    <row r="999" spans="32:32">
+      <c r="AF999" s="14"/>
+    </row>
+    <row r="1000" spans="32:32">
+      <c r="AF1000" s="14"/>
+    </row>
+    <row r="1001" spans="32:32">
+      <c r="AF1001" s="14"/>
+    </row>
+    <row r="1002" spans="32:32">
+      <c r="AF1002" s="14"/>
+    </row>
+    <row r="1003" spans="32:32">
+      <c r="AF1003" s="14"/>
+    </row>
+    <row r="1004" spans="32:32">
+      <c r="AF1004" s="14"/>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55D08D9-8DC0-4B23-8523-2760240E2437}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>